--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="190">
   <si>
     <t>dispositif</t>
   </si>
@@ -76,484 +76,493 @@
     <t>5</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>49</t>
+    <t>337</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>2782</t>
+  </si>
+  <si>
+    <t>2842</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>702677.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>1902050.22</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>1110908.27</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>38093.58</t>
+  </si>
+  <si>
+    <t>192455.66</t>
+  </si>
+  <si>
+    <t>624181.77</t>
+  </si>
+  <si>
+    <t>215245.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>1004145.00</t>
+  </si>
+  <si>
+    <t>257933.00</t>
+  </si>
+  <si>
+    <t>13350.00</t>
+  </si>
+  <si>
+    <t>11393.00</t>
+  </si>
+  <si>
+    <t>234500.00</t>
+  </si>
+  <si>
+    <t>724068.33</t>
+  </si>
+  <si>
+    <t>296253.26</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>163500.00</t>
+  </si>
+  <si>
+    <t>326336.66</t>
+  </si>
+  <si>
+    <t>212000.00</t>
+  </si>
+  <si>
+    <t>322500.00</t>
+  </si>
+  <si>
+    <t>900187.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>641402.00</t>
+  </si>
+  <si>
+    <t>21500.00</t>
+  </si>
+  <si>
+    <t>267700.00</t>
+  </si>
+  <si>
+    <t>399000.00</t>
+  </si>
+  <si>
+    <t>274995.14</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>41000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>352500.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>1006377.00</t>
+  </si>
+  <si>
+    <t>645000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>159500.00</t>
+  </si>
+  <si>
+    <t>441500.00</t>
+  </si>
+  <si>
+    <t>287000.00</t>
+  </si>
+  <si>
+    <t>305560.00</t>
+  </si>
+  <si>
+    <t>653484.60</t>
+  </si>
+  <si>
+    <t>344500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>595500.00</t>
+  </si>
+  <si>
+    <t>1864913.03</t>
+  </si>
+  <si>
+    <t>1001000.00</t>
+  </si>
+  <si>
+    <t>79000.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>648000.00</t>
+  </si>
+  <si>
+    <t>1861782.61</t>
+  </si>
+  <si>
+    <t>1213196.22</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>309000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>1069896.01</t>
+  </si>
+  <si>
+    <t>357677.09</t>
+  </si>
+  <si>
+    <t>33500.00</t>
+  </si>
+  <si>
+    <t>801000.00</t>
+  </si>
+  <si>
+    <t>2293829.00</t>
+  </si>
+  <si>
+    <t>1963906.50</t>
+  </si>
+  <si>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>59500.00</t>
+  </si>
+  <si>
+    <t>3744000.00</t>
+  </si>
+  <si>
+    <t>30500.00</t>
+  </si>
+  <si>
+    <t>7317449.03</t>
+  </si>
+  <si>
+    <t>34500.00</t>
+  </si>
+  <si>
+    <t>6851516.41</t>
+  </si>
+  <si>
+    <t>106000.00</t>
+  </si>
+  <si>
+    <t>100500.00</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>92</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>2782</t>
-  </si>
-  <si>
-    <t>2842</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>702677.00</t>
-  </si>
-  <si>
-    <t>14000.00</t>
-  </si>
-  <si>
-    <t>1902050.22</t>
-  </si>
-  <si>
-    <t>12500.00</t>
-  </si>
-  <si>
-    <t>1110908.27</t>
-  </si>
-  <si>
-    <t>25000.00</t>
-  </si>
-  <si>
-    <t>38093.58</t>
-  </si>
-  <si>
-    <t>192455.66</t>
-  </si>
-  <si>
-    <t>624181.77</t>
-  </si>
-  <si>
-    <t>215245.00</t>
-  </si>
-  <si>
-    <t>11500.00</t>
-  </si>
-  <si>
-    <t>334500.00</t>
-  </si>
-  <si>
-    <t>16500.00</t>
-  </si>
-  <si>
-    <t>994645.00</t>
-  </si>
-  <si>
-    <t>257933.00</t>
-  </si>
-  <si>
-    <t>13350.00</t>
-  </si>
-  <si>
-    <t>11393.00</t>
-  </si>
-  <si>
-    <t>232500.00</t>
-  </si>
-  <si>
-    <t>724068.33</t>
-  </si>
-  <si>
-    <t>296253.26</t>
-  </si>
-  <si>
-    <t>15000.00</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>119000.00</t>
-  </si>
-  <si>
-    <t>262336.66</t>
-  </si>
-  <si>
-    <t>185000.00</t>
-  </si>
-  <si>
-    <t>322500.00</t>
-  </si>
-  <si>
-    <t>896687.00</t>
-  </si>
-  <si>
-    <t>12000.00</t>
-  </si>
-  <si>
-    <t>641402.00</t>
-  </si>
-  <si>
-    <t>21500.00</t>
-  </si>
-  <si>
-    <t>267700.00</t>
-  </si>
-  <si>
-    <t>399000.00</t>
-  </si>
-  <si>
-    <t>274995.14</t>
-  </si>
-  <si>
-    <t>25500.00</t>
-  </si>
-  <si>
-    <t>19500.00</t>
-  </si>
-  <si>
-    <t>41000.00</t>
-  </si>
-  <si>
-    <t>40000.00</t>
-  </si>
-  <si>
-    <t>352500.00</t>
-  </si>
-  <si>
-    <t>9000.00</t>
-  </si>
-  <si>
-    <t>1004377.00</t>
-  </si>
-  <si>
-    <t>637000.00</t>
-  </si>
-  <si>
-    <t>8000.00</t>
-  </si>
-  <si>
-    <t>159500.00</t>
-  </si>
-  <si>
-    <t>441500.00</t>
-  </si>
-  <si>
-    <t>287000.00</t>
-  </si>
-  <si>
-    <t>294060.00</t>
-  </si>
-  <si>
-    <t>632484.60</t>
-  </si>
-  <si>
-    <t>334000.00</t>
-  </si>
-  <si>
-    <t>10000.00</t>
-  </si>
-  <si>
-    <t>28000.00</t>
-  </si>
-  <si>
-    <t>595500.00</t>
-  </si>
-  <si>
-    <t>1864913.03</t>
-  </si>
-  <si>
-    <t>1001000.00</t>
-  </si>
-  <si>
-    <t>79000.00</t>
-  </si>
-  <si>
-    <t>42000.00</t>
-  </si>
-  <si>
-    <t>648000.00</t>
-  </si>
-  <si>
-    <t>1861782.61</t>
-  </si>
-  <si>
-    <t>1213196.22</t>
-  </si>
-  <si>
-    <t>53000.00</t>
-  </si>
-  <si>
-    <t>38000.00</t>
-  </si>
-  <si>
-    <t>307000.00</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
-    <t>1069896.01</t>
-  </si>
-  <si>
-    <t>357677.09</t>
-  </si>
-  <si>
-    <t>33500.00</t>
-  </si>
-  <si>
-    <t>789000.00</t>
-  </si>
-  <si>
-    <t>20000.00</t>
-  </si>
-  <si>
-    <t>2271329.00</t>
-  </si>
-  <si>
-    <t>1937406.50</t>
-  </si>
-  <si>
-    <t>27500.00</t>
-  </si>
-  <si>
-    <t>57500.00</t>
-  </si>
-  <si>
-    <t>3744000.00</t>
-  </si>
-  <si>
-    <t>30500.00</t>
-  </si>
-  <si>
-    <t>7317449.03</t>
-  </si>
-  <si>
-    <t>34500.00</t>
-  </si>
-  <si>
-    <t>6851516.41</t>
-  </si>
-  <si>
-    <t>106000.00</t>
-  </si>
-  <si>
-    <t>100500.00</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>65</t>
   </si>
   <si>
     <t>Entrepreneur individuel</t>
@@ -975,19 +984,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1001,19 +1010,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
         <v>160</v>
       </c>
-      <c r="G3" t="s">
-        <v>158</v>
-      </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1027,19 +1036,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1053,19 +1062,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1079,19 +1088,19 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1105,19 +1114,19 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1131,19 +1140,19 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1157,19 +1166,19 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1183,19 +1192,19 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1209,19 +1218,19 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1235,19 +1244,19 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1261,19 +1270,19 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1287,19 +1296,19 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1313,19 +1322,19 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1339,19 +1348,19 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1362,22 +1371,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1391,19 +1400,19 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1414,22 +1423,22 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1440,22 +1449,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1466,22 +1475,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1492,22 +1501,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1518,22 +1527,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1544,22 +1553,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1570,22 +1579,22 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1596,22 +1605,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1622,22 +1631,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1648,22 +1657,22 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1674,22 +1683,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1700,22 +1709,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1726,22 +1735,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1752,22 +1761,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1778,22 +1787,22 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1804,22 +1813,22 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1830,22 +1839,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1856,22 +1865,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1882,22 +1891,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1908,22 +1917,22 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1934,22 +1943,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1960,22 +1969,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1986,22 +1995,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2012,22 +2021,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2038,22 +2047,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2067,19 +2076,19 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2090,22 +2099,22 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2116,22 +2125,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2142,22 +2151,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2168,22 +2177,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2197,19 +2206,19 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2220,22 +2229,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2246,22 +2255,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H51" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2272,22 +2281,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2301,19 +2310,19 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2324,22 +2333,22 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2350,22 +2359,22 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2376,22 +2385,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H56" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2402,22 +2411,22 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H57" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2428,22 +2437,22 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H58" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2457,19 +2466,19 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2480,22 +2489,22 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2509,19 +2518,19 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2532,22 +2541,22 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2558,22 +2567,22 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2584,22 +2593,22 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H64" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2610,22 +2619,22 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H65" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2636,22 +2645,22 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2662,22 +2671,22 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2688,22 +2697,22 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2714,22 +2723,22 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H69" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2740,22 +2749,22 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F70" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H70" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2766,22 +2775,22 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2792,22 +2801,22 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2818,22 +2827,22 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H73" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2844,22 +2853,22 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G74" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2870,22 +2879,22 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H75" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2896,22 +2905,22 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H76" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2922,22 +2931,22 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2948,22 +2957,22 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2974,22 +2983,22 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G79" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H79" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3000,22 +3009,22 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H80" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3026,22 +3035,22 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G81" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H81" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3052,22 +3061,22 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H82" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3078,22 +3087,22 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H83" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3104,22 +3113,22 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H84" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,12 +489,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>823238.09</t>
+          <t>829537.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +573,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2195518.22</t>
+          <t>2207018.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +657,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1289475.69</t>
+          <t>1291475.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +783,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>192455.66</t>
+          <t>227455.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +825,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>624181.77</t>
+          <t>676181.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +867,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>215245.00</t>
+          <t>238245.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1135,12 +1203,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>300000.00</t>
+          <t>306000.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1245,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>789752.33</t>
+          <t>791752.33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1287,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>348900.26</t>
+          <t>350900.26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1371,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10700.00</t>
+          <t>12700.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1471,12 +1539,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>389800.00</t>
+          <t>395800.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1639,12 +1707,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>737100.74</t>
+          <t>741100.74</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3067,12 +3135,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>740</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2134729.03</t>
+          <t>2136729.03</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3177,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1166972.79</t>
+          <t>1172472.79</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3487,12 +3555,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>317500.00</t>
+          <t>331000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3571,12 +3639,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>402</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1079896.01</t>
+          <t>1099396.01</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3681,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>363677.09</t>
+          <t>367677.09</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>850828.79</t>
+          <t>880328.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>814</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2325271.47</t>
+          <t>2397771.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1377521.69</t>
+          <t>1436121.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>251455.66</t>
+          <t>253455.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>374545.00</t>
+          <t>391083.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1252754.00</t>
+          <t>1296754.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20850.00</t>
+          <t>22850.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>306000.00</t>
+          <t>312000.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>793752.33</t>
+          <t>847336.33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>350900.26</t>
+          <t>352900.26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>395800.00</t>
+          <t>408926.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>17500.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1114032.00</t>
+          <t>1161532.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>770091.74</t>
+          <t>821218.74</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>451980.74</t>
+          <t>482472.74</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1126082.39</t>
+          <t>1207333.16</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>749762.76</t>
+          <t>755762.76</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>52220.65</t>
+          <t>62220.65</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2815,22 +2815,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>351060.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2857,22 +2857,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>734984.60</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>372000.00</t>
+          <t>351060.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>734984.60</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>372000.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3025,32 +3025,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>672426.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3067,32 +3067,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12490.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2140229.03</t>
+          <t>703118.84</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1172472.79</t>
+          <t>12490.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>758</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>81000.00</t>
+          <t>2256051.03</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>59472.09</t>
+          <t>1196267.79</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3277,32 +3277,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>746000.00</t>
+          <t>83000.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3319,32 +3319,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>78231.09</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1947782.61</t>
+          <t>746000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1284696.22</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>1947782.61</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>1284696.22</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3529,32 +3529,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>362136.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3571,32 +3571,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1257534.92</t>
+          <t>362136.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>437277.09</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>428</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>33500.00</t>
+          <t>1257534.92</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9250.00</t>
+          <t>437277.09</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3781,32 +3781,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>810500.00</t>
+          <t>33500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3823,32 +3823,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>9250.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2308829.00</t>
+          <t>810500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>857</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1967906.50</t>
+          <t>2308829.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4033,30 +4033,114 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1967906.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Société par actions simplifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>29500.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>61000.00</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>880328.79</t>
+          <t>891828.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>822</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2397771.47</t>
+          <t>2448771.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1436121.69</t>
+          <t>1476121.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>312000.00</t>
+          <t>334569.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>847336.33</t>
+          <t>872172.78</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>352900.26</t>
+          <t>370400.26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>68206.00</t>
+          <t>86956.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>121609.92</t>
+          <t>152929.92</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>81197.00</t>
+          <t>167599.15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>482472.74</t>
+          <t>493622.74</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1207333.16</t>
+          <t>1266532.68</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>755762.76</t>
+          <t>843113.55</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>62220.65</t>
+          <t>70220.65</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3726000.00</t>
+          <t>3746000.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2783</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7319449.03</t>
+          <t>7335449.03</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6851516.41</t>
+          <t>6857516.41</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>703118.84</t>
+          <t>716618.84</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2256051.03</t>
+          <t>2324332.47</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1196267.79</t>
+          <t>1258792.91</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>891828.79</t>
+          <t>893828.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>253455.66</t>
+          <t>267455.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>718681.77</t>
+          <t>741381.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>262745.00</t>
+          <t>284645.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>16250.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>391083.00</t>
+          <t>405083.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>416</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1296754.00</t>
+          <t>1334254.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>323101.38</t>
+          <t>335901.38</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22850.00</t>
+          <t>26350.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>86956.00</t>
+          <t>94956.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>152929.92</t>
+          <t>154929.92</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>167599.15</t>
+          <t>169599.15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>493622.74</t>
+          <t>538628.74</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>438</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1266532.68</t>
+          <t>1397735.13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>843113.55</t>
+          <t>901358.86</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>70220.65</t>
+          <t>100220.65</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3746000.00</t>
+          <t>3750000.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2787</t>
+          <t>2789</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7335449.03</t>
+          <t>7339449.03</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6857516.41</t>
+          <t>6862516.41</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>716618.84</t>
+          <t>744618.84</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>784</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2324332.47</t>
+          <t>2387232.47</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1258792.91</t>
+          <t>1300292.91</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>746000.00</t>
+          <t>764000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>724</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1947782.61</t>
+          <t>1952782.61</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>529</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1284696.22</t>
+          <t>1292696.22</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>267455.66</t>
+          <t>298238.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>741381.77</t>
+          <t>867021.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>284645.00</t>
+          <t>341125.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1334254.00</t>
+          <t>1364254.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>334569.00</t>
+          <t>346569.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>872172.78</t>
+          <t>880952.97</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>408926.00</t>
+          <t>414926.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1161532.00</t>
+          <t>1181532.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>821218.74</t>
+          <t>825218.74</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>94956.00</t>
+          <t>117439.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>154929.92</t>
+          <t>192229.92</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>169599.15</t>
+          <t>301198.15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15282.00</t>
+          <t>21132.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>538628.74</t>
+          <t>584420.74</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>454</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1397735.13</t>
+          <t>1506039.81</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>901358.86</t>
+          <t>969653.79</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>100220.65</t>
+          <t>110220.65</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2846</t>
+          <t>2847</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6862516.41</t>
+          <t>6866016.41</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>362136.00</t>
+          <t>399736.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1257534.92</t>
+          <t>1318734.92</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>437277.09</t>
+          <t>471749.09</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>810500.00</t>
+          <t>886650.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>909</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2308829.00</t>
+          <t>2598207.86</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>838</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1967906.50</t>
+          <t>2216502.50</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>61000.00</t>
+          <t>85000.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>405083.00</t>
+          <t>426606.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1364254.00</t>
+          <t>1389424.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>335901.38</t>
+          <t>374445.38</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>414926.00</t>
+          <t>416926.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1181532.00</t>
+          <t>1183532.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>825218.74</t>
+          <t>839218.74</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>301198.15</t>
+          <t>311198.15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>584420.74</t>
+          <t>602700.74</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1506039.81</t>
+          <t>1553055.70</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>969653.79</t>
+          <t>987653.79</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>2197</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3750000.00</t>
+          <t>4792717.07</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>50500.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2789</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7339449.03</t>
+          <t>8687728.66</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>34500.00</t>
+          <t>44500.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2847</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6866016.41</t>
+          <t>8337519.77</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106000.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>100500.00</t>
+          <t>139847.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>744618.84</t>
+          <t>777949.84</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>800</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2387232.47</t>
+          <t>2502922.82</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1300292.91</t>
+          <t>1357377.03</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>78231.09</t>
+          <t>98231.09</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>430</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>886650.00</t>
+          <t>952797.75</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>939</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2598207.86</t>
+          <t>2805543.13</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>857</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2216502.50</t>
+          <t>2329163.74</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>31500.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>301700.00</t>
+          <t>333700.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>422500.00</t>
+          <t>432000.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>302495.14</t>
+          <t>310495.14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25500.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1933,32 +1933,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>117439.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>192229.92</t>
+          <t>133439.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>311198.15</t>
+          <t>198229.92</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>21132.00</t>
+          <t>323198.15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2101,32 +2101,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>602700.74</t>
+          <t>21132.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>687220.74</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1553055.70</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>987653.79</t>
+          <t>1656626.56</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>1003453.79</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>110220.65</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2353,32 +2353,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2197</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4792717.07</t>
+          <t>117086.65</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2239</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>50500.00</t>
+          <t>4903066.11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8687728.66</t>
+          <t>56500.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>44500.00</t>
+          <t>8915533.96</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8337519.77</t>
+          <t>44500.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>8533568.68</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>139847.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2647,32 +2647,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>192500.00</t>
+          <t>139847.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>534000.00</t>
+          <t>192500.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>337984.00</t>
+          <t>534000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>337984.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2815,32 +2815,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2899,32 +2899,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>351060.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>734984.60</t>
+          <t>351060.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>372000.00</t>
+          <t>734984.60</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>372000.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3109,32 +3109,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>777949.84</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12490.00</t>
+          <t>781949.84</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2502922.82</t>
+          <t>12490.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>805</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1357377.03</t>
+          <t>2538307.34</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>83000.00</t>
+          <t>1359377.03</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>98231.09</t>
+          <t>83000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3361,32 +3361,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>764000.00</t>
+          <t>98231.09</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>391</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>892342.96</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1952782.61</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1292696.22</t>
+          <t>2299933.70</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>1429857.16</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3613,32 +3613,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>399736.00</t>
+          <t>47006.23</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>399736.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1318734.92</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>471749.09</t>
+          <t>1318734.92</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>33500.00</t>
+          <t>471749.09</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>9250.00</t>
+          <t>33500.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3865,32 +3865,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>952797.75</t>
+          <t>9250.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>430</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>952797.75</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2805543.13</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>939</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>2805543.13</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2329163.74</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>857</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>2329163.74</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4117,30 +4117,72 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>31500.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>85000.00</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -66,74 +66,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>893828.79</t>
+          <t>923828.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -573,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>829</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2448771.47</t>
+          <t>2474355.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -657,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1476121.69</t>
+          <t>1499837.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -741,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>55093.58</t>
+          <t>65093.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>298238.55</t>
+          <t>340238.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>867021.77</t>
+          <t>1004218.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -867,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>341125.40</t>
+          <t>387951.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -909,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16250.00</t>
+          <t>9450.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -929,12 +861,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -951,32 +883,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>426606.00</t>
+          <t>16250.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bretagne</t>
+          <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -993,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>457251.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1013,12 +945,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1035,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1389424.49</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1055,12 +987,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>374445.38</t>
+          <t>1457971.49</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,12 +1029,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26350.00</t>
+          <t>396811.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1139,12 +1071,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14876.16</t>
+          <t>32971.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1181,12 +1113,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1203,32 +1135,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>346569.00</t>
+          <t>14876.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>880952.97</t>
+          <t>346569.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1265,12 +1197,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1287,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>370400.26</t>
+          <t>880952.97</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1307,12 +1239,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1329,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>370400.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1349,12 +1281,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12700.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1391,12 +1323,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1413,32 +1345,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>201500.00</t>
+          <t>12700.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -1455,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>311836.66</t>
+          <t>201500.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1475,12 +1407,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>241500.00</t>
+          <t>311836.66</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1517,12 +1449,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1539,32 +1471,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>416926.00</t>
+          <t>241500.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17500.00</t>
+          <t>460926.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1601,12 +1533,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1183532.00</t>
+          <t>17500.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1643,12 +1575,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>404</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>1300512.90</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1685,12 +1617,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1707,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>839218.74</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1727,12 +1659,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -1749,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>891862.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1769,12 +1701,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>27560.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1811,12 +1743,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1765,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>333700.00</t>
+          <t>27560.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -1875,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>432000.00</t>
+          <t>373200.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1895,12 +1827,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1917,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>310495.14</t>
+          <t>453000.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1937,12 +1869,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1959,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>320495.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1979,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2001,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2021,12 +1953,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2043,32 +1975,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>133439.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2085,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>198229.92</t>
+          <t>133439.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2105,12 +2037,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>323198.15</t>
+          <t>198229.92</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2147,12 +2079,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>21132.00</t>
+          <t>323198.15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2189,12 +2121,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2143,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>687220.74</t>
+          <t>21132.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2253,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>687220.74</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2273,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1656626.56</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2315,12 +2247,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1003453.79</t>
+          <t>1656626.56</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2357,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>1003453.79</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2399,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>117086.65</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2441,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2463,32 +2395,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2239</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4903066.11</t>
+          <t>117086.65</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2505,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2239</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>56500.00</t>
+          <t>4903066.11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2525,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8915533.96</t>
+          <t>56500.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2567,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2589,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>44500.00</t>
+          <t>8917533.96</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2609,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8533568.68</t>
+          <t>44500.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2651,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>8533568.68</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2693,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2715,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>139847.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2735,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2757,32 +2689,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>192500.00</t>
+          <t>139847.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2799,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>534000.00</t>
+          <t>192500.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2819,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>337984.00</t>
+          <t>534000.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2861,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2883,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>337984.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2903,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2925,32 +2857,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2967,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2987,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3009,32 +2941,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>351060.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3051,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>734984.60</t>
+          <t>351060.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3071,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>372000.00</t>
+          <t>734984.60</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3113,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3135,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>372000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3155,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3197,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3219,32 +3151,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>781949.84</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12490.00</t>
+          <t>795949.84</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3281,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2538307.34</t>
+          <t>12490.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3323,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3345,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1359377.03</t>
+          <t>2550307.34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3365,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>464</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>83000.00</t>
+          <t>1361377.03</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3407,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>98231.09</t>
+          <t>86500.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3449,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3471,32 +3403,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>892342.96</t>
+          <t>98231.09</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3513,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>391</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>892342.96</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3533,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2299933.70</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3575,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3597,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1429857.16</t>
+          <t>2299933.70</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3617,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>1429857.16</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3659,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>47006.23</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3701,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3723,32 +3655,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>399736.00</t>
+          <t>47006.23</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3765,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>399736.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3785,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1318734.92</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3827,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3849,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>438</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>471749.09</t>
+          <t>1328734.92</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3869,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>33500.00</t>
+          <t>471749.09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3911,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3933,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>9250.00</t>
+          <t>33500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3953,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3975,32 +3907,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>952797.75</t>
+          <t>9250.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4017,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>449</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>1031224.67</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4037,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4059,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2805543.13</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4079,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>960</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>2957988.02</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4121,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2329163.74</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4163,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4185,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>882</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>2440868.45</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4205,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4227,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>85000.00</t>
+          <t>31500.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4247,10 +4179,52 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>111603.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>830</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2474355.40</t>
+          <t>2484355.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>346569.00</t>
+          <t>370569.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>880952.97</t>
+          <t>960217.92</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>370400.26</t>
+          <t>391137.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>460926.00</t>
+          <t>482926.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1300512.90</t>
+          <t>1378959.16</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>891862.96</t>
+          <t>950862.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>133439.00</t>
+          <t>158871.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>198229.92</t>
+          <t>226729.92</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>323198.15</t>
+          <t>346547.99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>687220.74</t>
+          <t>712676.74</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1656626.56</t>
+          <t>1718187.88</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1003453.79</t>
+          <t>1013453.79</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>117086.65</t>
+          <t>119240.09</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>812</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2550307.34</t>
+          <t>2580905.34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>467</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1361377.03</t>
+          <t>1380386.03</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>98231.09</t>
+          <t>100231.09</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>399736.00</t>
+          <t>425993.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>455</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1328734.92</t>
+          <t>1460362.50</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>471749.09</t>
+          <t>481976.09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>33500.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9250.00</t>
+          <t>18670.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1031224.67</t>
+          <t>1035224.67</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>964</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2957988.02</t>
+          <t>2982988.02</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2440868.45</t>
+          <t>2451868.45</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>340238.55</t>
+          <t>383739.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1004218.67</t>
+          <t>1070587.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>387951.40</t>
+          <t>425451.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16250.00</t>
+          <t>18250.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>482926.00</t>
+          <t>491253.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1378959.16</t>
+          <t>1424959.16</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>950862.96</t>
+          <t>964862.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27560.00</t>
+          <t>37560.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>712676.74</t>
+          <t>722676.74</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1718187.88</t>
+          <t>1766006.88</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1013453.79</t>
+          <t>1053026.29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>119240.09</t>
+          <t>135511.07</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2239</t>
+          <t>2243</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4903066.11</t>
+          <t>4911066.11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3067</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8917533.96</t>
+          <t>8919533.96</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>192500.00</t>
+          <t>247000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>534000.00</t>
+          <t>577500.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>337984.00</t>
+          <t>372284.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>351060.00</t>
+          <t>497859.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>734984.60</t>
+          <t>1069440.80</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>372000.00</t>
+          <t>563888.64</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>46000.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>795949.84</t>
+          <t>820335.70</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12490.00</t>
+          <t>20254.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>822</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2580905.34</t>
+          <t>2635905.34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1380386.03</t>
+          <t>1412386.03</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1070587.67</t>
+          <t>1080587.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>370569.00</t>
+          <t>386569.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>960217.92</t>
+          <t>1014217.92</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>391137.26</t>
+          <t>403137.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12700.00</t>
+          <t>22700.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1424959.16</t>
+          <t>1478959.16</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>964862.96</t>
+          <t>985882.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>158871.00</t>
+          <t>193746.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>226729.92</t>
+          <t>236797.92</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>346547.99</t>
+          <t>381157.99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21132.00</t>
+          <t>23132.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>247000.00</t>
+          <t>277500.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>577500.00</t>
+          <t>598500.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>372284.00</t>
+          <t>382439.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>820335.70</t>
+          <t>831135.70</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>830</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2635905.34</t>
+          <t>2670705.34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>474</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1412386.03</t>
+          <t>1434386.03</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>100231.09</t>
+          <t>103736.09</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>892342.96</t>
+          <t>894342.96</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1429857.16</t>
+          <t>1431857.16</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>383739.44</t>
+          <t>399739.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1080587.67</t>
+          <t>1150022.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>425451.40</t>
+          <t>437451.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>457251.00</t>
+          <t>477251.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1457971.49</t>
+          <t>1558030.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32971.00</t>
+          <t>34971.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>386569.00</t>
+          <t>390569.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>491253.00</t>
+          <t>497573.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1478959.16</t>
+          <t>1587507.82</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>985882.96</t>
+          <t>1017882.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>722676.74</t>
+          <t>732956.74</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>515</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1766006.88</t>
+          <t>1805406.88</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1053026.29</t>
+          <t>1065026.29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2243</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4911066.11</t>
+          <t>5910081.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>56500.00</t>
+          <t>108500.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3068</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8919533.96</t>
+          <t>10398583.25</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8533568.68</t>
+          <t>9984180.32</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>135350.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>139847.00</t>
+          <t>188868.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>497859.00</t>
+          <t>537013.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1069440.80</t>
+          <t>1162870.80</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>563888.64</t>
+          <t>597737.31</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>831135.70</t>
+          <t>843135.70</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>836</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2670705.34</t>
+          <t>2714081.34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1434386.03</t>
+          <t>1444224.03</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>103736.09</t>
+          <t>113736.09</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>425993.00</t>
+          <t>441071.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1460362.50</t>
+          <t>1506362.50</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>481976.09</t>
+          <t>483976.09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>18670.00</t>
+          <t>20670.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1035224.67</t>
+          <t>1037224.67</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>923828.79</t>
+          <t>941828.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2484355.40</t>
+          <t>2559775.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1499837.69</t>
+          <t>1514773.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>65093.58</t>
+          <t>74093.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>477251.00</t>
+          <t>497104.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1558030.03</t>
+          <t>1572030.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>396811.38</t>
+          <t>400811.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>390569.00</t>
+          <t>394569.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>497573.00</t>
+          <t>507748.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1587507.82</t>
+          <t>1595386.82</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>37560.00</t>
+          <t>40390.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>373200.00</t>
+          <t>534362.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>453000.00</t>
+          <t>508830.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>320495.14</t>
+          <t>383174.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>29500.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>193746.00</t>
+          <t>205746.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>236797.92</t>
+          <t>264828.92</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>381157.99</t>
+          <t>400657.99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>23132.00</t>
+          <t>11109.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2185,32 +2185,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>732956.74</t>
+          <t>23132.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>732956.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1805406.88</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>515</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1065026.29</t>
+          <t>1805406.88</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>1070875.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>135511.07</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2437,32 +2437,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5910081.17</t>
+          <t>135511.07</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>108500.00</t>
+          <t>5910081.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10398583.25</t>
+          <t>108500.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>44500.00</t>
+          <t>10398583.25</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9984180.32</t>
+          <t>44500.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>135350.00</t>
+          <t>9984180.32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>188868.00</t>
+          <t>135350.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2731,32 +2731,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>277500.00</t>
+          <t>188868.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>598500.00</t>
+          <t>277500.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>382439.00</t>
+          <t>598500.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>382439.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2899,32 +2899,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2983,32 +2983,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>537013.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1162870.80</t>
+          <t>537013.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>597737.31</t>
+          <t>1162870.80</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>597737.31</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3193,32 +3193,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>843135.70</t>
+          <t>46000.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>20254.00</t>
+          <t>843135.70</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2714081.34</t>
+          <t>20254.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>836</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1444224.03</t>
+          <t>2714081.34</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>86500.00</t>
+          <t>1444224.03</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>113736.09</t>
+          <t>86500.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>894342.96</t>
+          <t>113736.09</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>894342.96</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2299933.70</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1431857.16</t>
+          <t>2299933.70</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>1431857.16</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>47006.23</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>441071.00</t>
+          <t>47006.23</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>441071.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1506362.50</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>483976.09</t>
+          <t>1506362.50</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>483976.09</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20670.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3949,32 +3949,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1037224.67</t>
+          <t>20670.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>1037224.67</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2982988.02</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>964</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>2982988.02</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2451868.45</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>2451868.45</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4201,30 +4201,72 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>31500.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>111603.00</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>507748.00</t>
+          <t>585548.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>468</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1595386.82</t>
+          <t>1746312.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1017882.96</t>
+          <t>1087354.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>732956.74</t>
+          <t>779606.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>532</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1805406.88</t>
+          <t>1928644.11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1070875.16</t>
+          <t>1121385.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>2783</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5910081.17</t>
+          <t>6175500.33</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>108500.00</t>
+          <t>118500.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10398583.25</t>
+          <t>10797539.50</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>9984180.32</t>
+          <t>10413274.64</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>135350.00</t>
+          <t>139350.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>188868.00</t>
+          <t>214868.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,22 +2773,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>277500.00</t>
+          <t>56000.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2815,22 +2815,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>598500.00</t>
+          <t>162027.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2857,22 +2857,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>382439.00</t>
+          <t>28277.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>277500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2941,32 +2941,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>598500.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2983,32 +2983,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>382439.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3025,32 +3025,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>537013.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3067,32 +3067,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1162870.80</t>
+          <t>31900.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3109,32 +3109,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>597737.31</t>
+          <t>13000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3151,32 +3151,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>537013.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>37500.00</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Normandie</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>1162870.80</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3235,32 +3235,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>843135.70</t>
+          <t>597737.31</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3277,32 +3277,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>20254.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3319,32 +3319,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2714081.34</t>
+          <t>46000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1444224.03</t>
+          <t>848635.70</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>86500.00</t>
+          <t>20254.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>846</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>113736.09</t>
+          <t>2784581.34</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3487,32 +3487,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>483</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>894342.96</t>
+          <t>1498920.87</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3529,32 +3529,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>88500.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3571,32 +3571,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2299933.70</t>
+          <t>113736.09</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1431857.16</t>
+          <t>894342.96</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>47006.23</t>
+          <t>2299933.70</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3739,32 +3739,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>441071.00</t>
+          <t>1431857.16</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3781,32 +3781,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3823,32 +3823,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1506362.50</t>
+          <t>47006.23</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>483976.09</t>
+          <t>459071.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>466</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>20670.00</t>
+          <t>1533862.50</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3991,32 +3991,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1037224.67</t>
+          <t>485976.09</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4033,32 +4033,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4075,32 +4075,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2982988.02</t>
+          <t>20670.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>1037224.67</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2451868.45</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>964</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>2982988.02</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4243,30 +4243,156 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7500.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Société anonyme à conseil d'administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2451868.45</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Société par actions simplifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>31500.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>111603.00</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>394569.00</t>
+          <t>410599.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1014217.92</t>
+          <t>1054917.92</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>403137.26</t>
+          <t>415137.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22700.00</t>
+          <t>32700.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>585548.00</t>
+          <t>594019.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1746312.70</t>
+          <t>1776312.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>779606.74</t>
+          <t>789606.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1928644.11</t>
+          <t>1942644.11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1121385.16</t>
+          <t>1140381.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>848635.70</t>
+          <t>858635.70</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>848</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2784581.34</t>
+          <t>2791581.34</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1498920.87</t>
+          <t>1510920.87</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>459071.00</t>
+          <t>465071.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1533862.50</t>
+          <t>1574000.50</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>485976.09</t>
+          <t>487976.09</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20670.00</t>
+          <t>22670.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>594019.00</t>
+          <t>610019.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1776312.70</t>
+          <t>1860399.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1087354.96</t>
+          <t>1089354.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>508830.00</t>
+          <t>510830.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>383174.14</t>
+          <t>385174.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>205746.00</t>
+          <t>215940.61</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>264828.92</t>
+          <t>325959.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>400657.99</t>
+          <t>421688.99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>23132.00</t>
+          <t>33132.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>31900.00</t>
+          <t>37900.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,32 +3151,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>537013.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1162870.80</t>
+          <t>537013.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>597737.31</t>
+          <t>1162870.80</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>597737.31</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3361,32 +3361,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>858635.70</t>
+          <t>46000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>20254.00</t>
+          <t>873635.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2791581.34</t>
+          <t>20254.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>862</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1510920.87</t>
+          <t>2862419.89</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>88500.00</t>
+          <t>1557002.87</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>113736.09</t>
+          <t>90500.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3613,32 +3613,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>894342.96</t>
+          <t>113736.09</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>894342.96</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2299933.70</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1431857.16</t>
+          <t>2299933.70</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>1431857.16</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>47006.23</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3865,32 +3865,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>465071.00</t>
+          <t>47006.23</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>467071.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1574000.50</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>487976.09</t>
+          <t>1574000.50</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>499976.09</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>22670.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4117,32 +4117,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1037224.67</t>
+          <t>22670.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>1037224.67</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2982988.02</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>964</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>2982988.02</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2451868.45</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>2451868.45</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4369,30 +4369,72 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>31500.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>111603.00</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>941828.79</t>
+          <t>943828.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>497104.00</t>
+          <t>528862.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>464</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1572030.03</t>
+          <t>1642708.75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>400811.38</t>
+          <t>418415.33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>410599.00</t>
+          <t>412599.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>415137.26</t>
+          <t>417137.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>610019.00</t>
+          <t>623174.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1860399.70</t>
+          <t>1897299.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1089354.96</t>
+          <t>1098925.37</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>534362.00</t>
+          <t>615150.71</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>510830.00</t>
+          <t>548514.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>385174.14</t>
+          <t>430174.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>789606.74</t>
+          <t>810006.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>544</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1942644.11</t>
+          <t>1995430.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>359</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1140381.16</t>
+          <t>1170796.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2783</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6175500.33</t>
+          <t>7422377.36</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>118500.00</t>
+          <t>138500.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10797539.50</t>
+          <t>12724819.79</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>44500.00</t>
+          <t>54500.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10413274.64</t>
+          <t>11755038.49</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>139350.00</t>
+          <t>143350.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>214868.00</t>
+          <t>291689.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>359</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>873635.70</t>
+          <t>883635.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>873</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2862419.89</t>
+          <t>2907919.89</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1557002.87</t>
+          <t>1582502.87</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>113736.09</t>
+          <t>123736.09</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>467071.00</t>
+          <t>473071.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>473</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1574000.50</t>
+          <t>1576000.50</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>412599.00</t>
+          <t>420599.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1054917.92</t>
+          <t>1117929.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>417137.26</t>
+          <t>441137.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>623174.00</t>
+          <t>627174.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1897299.70</t>
+          <t>1945299.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1098925.37</t>
+          <t>1153722.37</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>31000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>215940.61</t>
+          <t>277077.69</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>325959.98</t>
+          <t>338959.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>421688.99</t>
+          <t>461688.99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>810006.74</t>
+          <t>867006.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1995430.99</t>
+          <t>2122430.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1170796.16</t>
+          <t>1230567.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7422377.36</t>
+          <t>7467348.36</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12724819.79</t>
+          <t>12753819.79</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3859</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11755038.49</t>
+          <t>11788438.49</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>364</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>883635.70</t>
+          <t>893635.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>878</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2907919.89</t>
+          <t>2935419.89</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1582502.87</t>
+          <t>1602502.87</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>540</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1037224.67</t>
+          <t>1321218.67</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>22200.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2982988.02</t>
+          <t>3502629.98</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>952</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2451868.45</t>
+          <t>2819531.31</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>111603.00</t>
+          <t>166833.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>943828.79</t>
+          <t>981828.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>856</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2559775.40</t>
+          <t>2655616.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>542</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1514773.89</t>
+          <t>1566513.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>627174.00</t>
+          <t>646542.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1945299.70</t>
+          <t>2030800.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1153722.37</t>
+          <t>1175478.17</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>31000.00</t>
+          <t>34500.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>867006.74</t>
+          <t>885357.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2122430.99</t>
+          <t>2151830.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1230567.16</t>
+          <t>1262567.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7467348.36</t>
+          <t>7600616.99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>138500.00</t>
+          <t>142000.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3781</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12753819.79</t>
+          <t>12889689.79</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3866</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11788438.49</t>
+          <t>11901642.08</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>277500.00</t>
+          <t>287500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>598500.00</t>
+          <t>603400.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>37900.00</t>
+          <t>74110.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>68496.05</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>27700.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>537013.00</t>
+          <t>597331.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1162870.80</t>
+          <t>1233844.26</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>597737.31</t>
+          <t>649916.51</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>56000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>893635.70</t>
+          <t>899135.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>881</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2935419.89</t>
+          <t>2942919.89</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1602502.87</t>
+          <t>1606208.87</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>90500.00</t>
+          <t>94000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>123736.09</t>
+          <t>133736.09</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>543</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1566513.59</t>
+          <t>1576513.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>399739.44</t>
+          <t>462230.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1150022.67</t>
+          <t>1220255.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>437451.40</t>
+          <t>496116.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9450.00</t>
+          <t>14450.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>528862.00</t>
+          <t>554362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1642708.75</t>
+          <t>1696154.75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>646542.64</t>
+          <t>656542.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2030800.70</t>
+          <t>2049800.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1175478.17</t>
+          <t>1207198.17</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>34500.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>885357.74</t>
+          <t>934867.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>581</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2151830.99</t>
+          <t>2245831.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1262567.16</t>
+          <t>1306867.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1321218.67</t>
+          <t>1349722.15</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3502629.98</t>
+          <t>3537580.92</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>966</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2819531.31</t>
+          <t>2898046.31</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>166833.00</t>
+          <t>171183.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>981828.79</t>
+          <t>1009828.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>26216.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>891</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2655616.22</t>
+          <t>2898127.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1576513.59</t>
+          <t>1633600.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>74093.58</t>
+          <t>94093.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>554362.00</t>
+          <t>564362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>473</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1696154.75</t>
+          <t>1706154.75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14876.16</t>
+          <t>19876.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>420599.00</t>
+          <t>424599.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1117929.00</t>
+          <t>1139929.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32700.00</t>
+          <t>42700.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>656542.64</t>
+          <t>660542.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2049800.70</t>
+          <t>2051800.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1207198.17</t>
+          <t>1211198.17</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>277077.69</t>
+          <t>362102.22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>338959.98</t>
+          <t>370909.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>461688.99</t>
+          <t>474188.99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>934867.74</t>
+          <t>938867.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3335</t>
+          <t>3419</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7600616.99</t>
+          <t>7815692.31</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3804</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12889689.79</t>
+          <t>13020069.22</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11901642.08</t>
+          <t>12006253.47</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>291689.00</t>
+          <t>298436.47</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>899135.70</t>
+          <t>926635.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>20254.00</t>
+          <t>22254.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>887</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2942919.89</t>
+          <t>2974751.39</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1606208.87</t>
+          <t>1628543.87</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>94000.00</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1009828.79</t>
+          <t>1051828.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>910</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2898127.87</t>
+          <t>3018233.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1633600.55</t>
+          <t>1705700.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>31000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94093.58</t>
+          <t>116938.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>564362.00</t>
+          <t>566362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1706154.75</t>
+          <t>1729608.75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>418415.33</t>
+          <t>420415.33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>424599.00</t>
+          <t>430599.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1139929.00</t>
+          <t>1167741.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>441137.26</t>
+          <t>444137.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>42700.00</t>
+          <t>48900.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>660542.64</t>
+          <t>666542.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2051800.70</t>
+          <t>2057800.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1211198.17</t>
+          <t>1215198.17</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>40390.00</t>
+          <t>45932.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>362102.22</t>
+          <t>387482.22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>370909.98</t>
+          <t>397909.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>474188.99</t>
+          <t>502119.99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>938867.74</t>
+          <t>958867.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>583</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2245831.99</t>
+          <t>2255408.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1306867.16</t>
+          <t>1310867.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3419</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7815692.31</t>
+          <t>8111876.70</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3831</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13020069.22</t>
+          <t>13217200.06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12006253.47</t>
+          <t>12149356.47</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>143350.00</t>
+          <t>145350.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>926635.70</t>
+          <t>934971.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>22254.00</t>
+          <t>32254.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2974751.39</t>
+          <t>3081919.39</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1628543.87</t>
+          <t>1662286.87</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>102500.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>490</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1051828.79</t>
+          <t>1175292.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>959</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3018233.54</t>
+          <t>3299809.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1705700.55</t>
+          <t>1885263.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31000.00</t>
+          <t>35498.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>116938.45</t>
+          <t>130184.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>462230.44</t>
+          <t>468730.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1220255.08</t>
+          <t>1277850.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>496116.40</t>
+          <t>561783.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18250.00</t>
+          <t>26250.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>566362.00</t>
+          <t>574362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1729608.75</t>
+          <t>1775990.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>420415.33</t>
+          <t>435593.73</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>430599.00</t>
+          <t>431809.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>666542.64</t>
+          <t>690742.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>538</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2057800.70</t>
+          <t>2166533.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1215198.17</t>
+          <t>1264613.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>53500.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>615150.71</t>
+          <t>712619.71</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>548514.00</t>
+          <t>572514.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>430174.14</t>
+          <t>443674.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>958867.74</t>
+          <t>966867.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>586</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2255408.99</t>
+          <t>2282908.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1310867.16</t>
+          <t>1316867.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3554</t>
+          <t>3758</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8111876.70</t>
+          <t>8662665.38</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>142000.00</t>
+          <t>4800.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3865</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13217200.06</t>
+          <t>148500.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2605,19 +2605,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>4030</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14118182.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>54500.00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Île-de-France</t>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12149356.47</t>
+          <t>54500.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>145350.00</t>
+          <t>13159449.10</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>298436.47</t>
+          <t>152670.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2773,32 +2773,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>56000.00</t>
+          <t>324110.47</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>162027.00</t>
+          <t>56000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>28277.00</t>
+          <t>162027.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2899,32 +2899,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>287500.00</t>
+          <t>28277.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>603400.00</t>
+          <t>287500.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>382439.00</t>
+          <t>603400.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>382439.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3067,32 +3067,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>74110.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>68496.05</t>
+          <t>74110.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>27700.00</t>
+          <t>68496.05</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3193,32 +3193,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>597331.00</t>
+          <t>27700.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1233844.26</t>
+          <t>597331.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>649916.51</t>
+          <t>1233844.26</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>649916.51</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>56000.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3403,32 +3403,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>934971.70</t>
+          <t>56000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>32254.00</t>
+          <t>953009.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3081919.39</t>
+          <t>32254.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>911</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1662286.87</t>
+          <t>3120287.26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>102500.00</t>
+          <t>1701220.47</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>133736.09</t>
+          <t>102500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3655,32 +3655,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>894342.96</t>
+          <t>139070.68</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>894342.96</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2299933.70</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1431857.16</t>
+          <t>2299933.70</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>1431857.16</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>47006.23</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3907,32 +3907,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>473071.00</t>
+          <t>47006.23</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>473071.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1576000.50</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>473</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>499976.09</t>
+          <t>1576000.50</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>499976.09</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>22670.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4159,32 +4159,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1349722.15</t>
+          <t>22670.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>22200.00</t>
+          <t>1365222.15</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3537580.92</t>
+          <t>22200.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>3567340.92</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2898046.31</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>974</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>2938686.31</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4411,30 +4411,72 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>45500.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>171183.00</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1175292.79</t>
+          <t>1241687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>991</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3299809.65</t>
+          <t>3472953.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>622</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1885263.65</t>
+          <t>1968525.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>130184.45</t>
+          <t>152144.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>574362.00</t>
+          <t>578362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1775990.13</t>
+          <t>1791074.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>690742.64</t>
+          <t>701657.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2166533.70</t>
+          <t>2204872.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1264613.57</t>
+          <t>1290613.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>387482.22</t>
+          <t>395017.22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>397909.98</t>
+          <t>409909.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>33132.00</t>
+          <t>38755.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>966867.74</t>
+          <t>982867.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>592</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2282908.99</t>
+          <t>2318908.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1316867.16</t>
+          <t>1349177.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>953009.70</t>
+          <t>967009.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>915</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3120287.26</t>
+          <t>3160287.26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>518</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1701220.47</t>
+          <t>1703220.47</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>603</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1365222.15</t>
+          <t>1469849.94</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3567340.92</t>
+          <t>3677253.80</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2938686.31</t>
+          <t>3060136.31</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>621</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1241687.79</t>
+          <t>1443687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3472953.47</t>
+          <t>3535953.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>636</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1968525.78</t>
+          <t>2024112.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>152144.45</t>
+          <t>154144.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>468730.44</t>
+          <t>471180.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>578362.00</t>
+          <t>584362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1791074.13</t>
+          <t>1823074.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19876.16</t>
+          <t>28418.77</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>701657.45</t>
+          <t>716237.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>712619.71</t>
+          <t>730119.71</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>572514.00</t>
+          <t>647703.04</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>443674.14</t>
+          <t>490860.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>41492.85</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>982867.74</t>
+          <t>1007567.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>609</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2318908.99</t>
+          <t>2389882.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1349177.16</t>
+          <t>1380154.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3758</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8662665.38</t>
+          <t>8676045.38</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14118182.38</t>
+          <t>14119639.38</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>967009.70</t>
+          <t>968509.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3160287.26</t>
+          <t>3192287.26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1703220.47</t>
+          <t>1705220.47</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>894342.96</t>
+          <t>896342.96</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>604</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1469849.94</t>
+          <t>1471849.94</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>652</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1443687.79</t>
+          <t>1505687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3535953.47</t>
+          <t>3577453.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>644</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024112.78</t>
+          <t>2066277.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>431809.00</t>
+          <t>457809.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1167741.00</t>
+          <t>1181741.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>444137.26</t>
+          <t>452312.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>716237.45</t>
+          <t>718237.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>549</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2204872.70</t>
+          <t>2244182.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1290613.57</t>
+          <t>1300613.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>730119.71</t>
+          <t>732119.71</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1007567.74</t>
+          <t>1017567.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2389882.99</t>
+          <t>2400292.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1380154.16</t>
+          <t>1393954.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>56000.00</t>
+          <t>113416.69</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>162027.00</t>
+          <t>271019.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>28277.00</t>
+          <t>74777.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>968509.70</t>
+          <t>977509.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>924</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3192287.26</t>
+          <t>3213775.26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1705220.47</t>
+          <t>1722125.47</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>139070.68</t>
+          <t>146180.27</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1471849.94</t>
+          <t>1525349.94</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3677253.80</t>
+          <t>3729249.80</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3060136.31</t>
+          <t>3120636.31</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>171183.00</t>
+          <t>179835.52</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>675</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1505687.79</t>
+          <t>1551687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3577453.47</t>
+          <t>3579453.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>651</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2066277.78</t>
+          <t>2097277.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>471180.44</t>
+          <t>545891.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>364</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1277850.18</t>
+          <t>1357808.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>561783.25</t>
+          <t>613307.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14450.00</t>
+          <t>17950.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>584362.00</t>
+          <t>588362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1823074.13</t>
+          <t>1826574.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>435593.73</t>
+          <t>440500.81</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>280</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>718237.45</t>
+          <t>724137.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2244182.70</t>
+          <t>2302182.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1300613.57</t>
+          <t>1328198.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>45932.00</t>
+          <t>47932.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1017567.74</t>
+          <t>1023772.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2400292.99</t>
+          <t>2408660.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1393954.16</t>
+          <t>1428367.16</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>135511.07</t>
+          <t>143011.07</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3213775.26</t>
+          <t>3228740.26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>695</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1551687.79</t>
+          <t>1597687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3579453.47</t>
+          <t>3609453.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2097277.78</t>
+          <t>2109277.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>588362.00</t>
+          <t>598362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1826574.13</t>
+          <t>1836574.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1181741.00</t>
+          <t>1185741.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>452312.39</t>
+          <t>468812.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>724137.45</t>
+          <t>728137.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>395017.22</t>
+          <t>431017.22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>409909.98</t>
+          <t>415409.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>502119.99</t>
+          <t>520972.99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1428367.16</t>
+          <t>1451998.40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>928</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3228740.26</t>
+          <t>3245240.26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>523</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1722125.47</t>
+          <t>1724125.47</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3120636.31</t>
+          <t>3122636.31</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>744</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1597687.79</t>
+          <t>1695687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3609453.47</t>
+          <t>3631453.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>662</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2109277.78</t>
+          <t>2143408.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1357808.18</t>
+          <t>1364308.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>613307.11</t>
+          <t>614976.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>598362.00</t>
+          <t>600362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>728137.45</t>
+          <t>747727.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2302182.70</t>
+          <t>2326182.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1328198.57</t>
+          <t>1332198.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>53500.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>431017.22</t>
+          <t>446117.22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>415409.98</t>
+          <t>417409.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>520972.99</t>
+          <t>535972.25</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11109.00</t>
+          <t>13109.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1023772.74</t>
+          <t>1041140.74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2408660.99</t>
+          <t>2482013.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1451998.40</t>
+          <t>1486861.40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8676045.38</t>
+          <t>8800141.47</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4031</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14119639.38</t>
+          <t>14275525.38</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13159449.10</t>
+          <t>13308255.27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>324110.47</t>
+          <t>328110.47</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3245240.26</t>
+          <t>3247240.26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1724125.47</t>
+          <t>1726125.47</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>768</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1695687.79</t>
+          <t>1743687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3631453.47</t>
+          <t>3635453.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>664</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2143408.78</t>
+          <t>2152907.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>545891.60</t>
+          <t>570715.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1364308.18</t>
+          <t>1414220.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>614976.34</t>
+          <t>640976.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>600362.00</t>
+          <t>602362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1836574.13</t>
+          <t>1846574.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>440500.81</t>
+          <t>445375.81</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>457809.00</t>
+          <t>460659.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1185741.00</t>
+          <t>1195741.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2326182.70</t>
+          <t>2338016.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1332198.57</t>
+          <t>1347198.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1041140.74</t>
+          <t>1061299.43</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>629</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2482013.99</t>
+          <t>2512013.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>430</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1486861.40</t>
+          <t>1502861.40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>74777.00</t>
+          <t>84777.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1743687.79</t>
+          <t>1827687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3635453.47</t>
+          <t>3668453.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>667</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2152907.78</t>
+          <t>2161907.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35498.41</t>
+          <t>37498.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2338016.89</t>
+          <t>2353516.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1061299.43</t>
+          <t>1065299.43</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1502861.40</t>
+          <t>1534361.40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3816</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8800141.47</t>
+          <t>8806141.47</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13308255.27</t>
+          <t>13329755.27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>84777.00</t>
+          <t>91177.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>977509.70</t>
+          <t>979509.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>935</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3247240.26</t>
+          <t>3275240.26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>146180.27</t>
+          <t>156180.27</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>473071.00</t>
+          <t>526169.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1576000.50</t>
+          <t>1822869.71</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>499976.09</t>
+          <t>556380.81</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>22670.00</t>
+          <t>24670.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>668</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1525349.94</t>
+          <t>1630584.94</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>22200.00</t>
+          <t>7571.16</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3729249.80</t>
+          <t>22200.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>3782549.80</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3122636.31</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>3243097.76</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>179835.52</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,10 +4473,52 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>203835.52</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1827687.79</t>
+          <t>1887687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3668453.47</t>
+          <t>3681879.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>670</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2161907.78</t>
+          <t>2190407.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1414220.18</t>
+          <t>1422220.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>747727.45</t>
+          <t>749727.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>573</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2353516.89</t>
+          <t>2392474.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1347198.57</t>
+          <t>1369778.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1065299.43</t>
+          <t>1073299.43</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>633</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2512013.99</t>
+          <t>2543733.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>438</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1534361.40</t>
+          <t>1548161.40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>979509.70</t>
+          <t>985306.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>526</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1726125.47</t>
+          <t>1735225.47</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>102500.00</t>
+          <t>104500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>669</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1630584.94</t>
+          <t>1632584.94</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>841</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1887687.79</t>
+          <t>1889687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>671</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2190407.78</t>
+          <t>2192407.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1846574.13</t>
+          <t>1850074.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>201500.00</t>
+          <t>285025.13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>311836.66</t>
+          <t>452266.96</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>241500.00</t>
+          <t>337094.60</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1513,32 +1513,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>749727.45</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17500.00</t>
+          <t>755227.45</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2392474.89</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>576</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>2414474.89</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1369778.57</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>1379778.57</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>47932.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>732119.71</t>
+          <t>47932.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>647703.04</t>
+          <t>732119.71</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>490860.14</t>
+          <t>647703.04</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>490860.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>41492.85</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2017,32 +2017,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>446117.22</t>
+          <t>41492.85</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>417409.98</t>
+          <t>528555.23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>535972.25</t>
+          <t>436699.98</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13109.00</t>
+          <t>564972.25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>38755.00</t>
+          <t>13109.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2227,32 +2227,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1073299.43</t>
+          <t>38755.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>1115299.43</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2543733.99</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>641</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1548161.40</t>
+          <t>2615359.99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>1595557.40</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>143011.07</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2479,32 +2479,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8806141.47</t>
+          <t>143011.07</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4800.00</t>
+          <t>8810141.47</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>148500.00</t>
+          <t>4800.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4055</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14275525.38</t>
+          <t>148500.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2647,19 +2647,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>4055</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14275525.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>54500.00</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Île-de-France</t>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4194</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13329755.27</t>
+          <t>54500.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>152670.00</t>
+          <t>13329755.27</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>328110.47</t>
+          <t>152670.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2815,32 +2815,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>113416.69</t>
+          <t>328110.47</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>271019.00</t>
+          <t>113416.69</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>91177.00</t>
+          <t>271019.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2941,32 +2941,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>287500.00</t>
+          <t>91177.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>603400.00</t>
+          <t>287500.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>382439.00</t>
+          <t>603400.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>382439.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3109,32 +3109,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>74110.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>68496.05</t>
+          <t>74110.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>27700.00</t>
+          <t>68496.05</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3235,32 +3235,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>597331.00</t>
+          <t>27700.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1233844.26</t>
+          <t>675799.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>649916.51</t>
+          <t>1413899.36</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>752812.51</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>56000.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>985306.70</t>
+          <t>73000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>32254.00</t>
+          <t>985306.70</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3275240.26</t>
+          <t>32254.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>935</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1735225.47</t>
+          <t>3275240.26</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>526</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>104500.00</t>
+          <t>1735225.47</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>156180.27</t>
+          <t>104500.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>896342.96</t>
+          <t>156180.27</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>896342.96</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2299933.70</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1431857.16</t>
+          <t>2299933.70</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>1431857.16</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>47006.23</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3949,32 +3949,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>526169.00</t>
+          <t>47006.23</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>526169.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1822869.71</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>556380.81</t>
+          <t>1822869.71</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>556380.81</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>24670.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4201,32 +4201,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1632584.94</t>
+          <t>24670.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>669</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>7571.16</t>
+          <t>1632584.94</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>22200.00</t>
+          <t>7571.16</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3782549.80</t>
+          <t>22200.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>3782549.80</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3243097.76</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>3243097.76</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4495,30 +4495,72 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>45500.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>203835.52</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>873</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1889687.79</t>
+          <t>1953687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1035</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3681879.47</t>
+          <t>3687879.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>674</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2192407.78</t>
+          <t>2202707.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1850074.13</t>
+          <t>1858274.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1195741.00</t>
+          <t>1203741.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>755227.45</t>
+          <t>774236.89</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>583</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2414474.89</t>
+          <t>2459419.89</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>403</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1379778.57</t>
+          <t>1420480.57</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>47932.00</t>
+          <t>49932.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>732119.71</t>
+          <t>883760.71</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>647703.04</t>
+          <t>672577.04</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>490860.14</t>
+          <t>563671.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>41492.85</t>
+          <t>45492.85</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>528555.23</t>
+          <t>548555.23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>436699.98</t>
+          <t>438699.98</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>564972.25</t>
+          <t>572972.25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>74110.00</t>
+          <t>98660.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>68496.05</t>
+          <t>70496.05</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>27700.00</t>
+          <t>37700.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>985306.70</t>
+          <t>993906.70</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>941</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3275240.26</t>
+          <t>3309240.26</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1735225.47</t>
+          <t>1739225.47</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>898</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1953687.79</t>
+          <t>2003687.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3687879.47</t>
+          <t>3691879.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>677</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2202707.78</t>
+          <t>2208707.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>602362.00</t>
+          <t>606362.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>504</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1858274.13</t>
+          <t>1873774.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>28418.77</t>
+          <t>30418.77</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1203741.00</t>
+          <t>1205741.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>285025.13</t>
+          <t>291025.13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>452266.96</t>
+          <t>458516.96</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>337094.60</t>
+          <t>365094.60</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>587</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2459419.89</t>
+          <t>2476919.89</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>404</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1420480.57</t>
+          <t>1422480.57</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>883760.71</t>
+          <t>891760.71</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>672577.04</t>
+          <t>693504.04</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>563671.14</t>
+          <t>575671.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>415</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1115299.43</t>
+          <t>1139154.43</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>649</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2615359.99</t>
+          <t>2668879.99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1595557.40</t>
+          <t>1605996.50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8810141.47</t>
+          <t>8816141.47</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4055</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14275525.38</t>
+          <t>14289025.38</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>113416.69</t>
+          <t>193416.69</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>271019.00</t>
+          <t>415368.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>91177.00</t>
+          <t>135177.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>993906.70</t>
+          <t>1004406.70</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3309240.26</t>
+          <t>3328064.26</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>530</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1739225.47</t>
+          <t>1751225.47</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>774236.89</t>
+          <t>778236.89</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2003687.79</t>
+          <t>2218686.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3691879.47</t>
+          <t>3760636.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>691</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2208707.78</t>
+          <t>2283574.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37498.41</t>
+          <t>39498.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>154144.45</t>
+          <t>164144.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>570715.60</t>
+          <t>585215.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1422220.18</t>
+          <t>1449720.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>640976.34</t>
+          <t>658476.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>589</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2476919.89</t>
+          <t>2496919.89</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>548555.23</t>
+          <t>562055.23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>438699.98</t>
+          <t>440699.98</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>572972.25</t>
+          <t>580972.25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1139154.43</t>
+          <t>1160354.43</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>657</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2668879.99</t>
+          <t>2714879.99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>449</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1605996.50</t>
+          <t>1617996.50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3824</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8816141.47</t>
+          <t>8824141.47</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4194</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13329755.27</t>
+          <t>13339755.27</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>287500.00</t>
+          <t>291450.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>603400.00</t>
+          <t>607326.60</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>382439.00</t>
+          <t>396518.88</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>951</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3328064.26</t>
+          <t>3351064.26</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>534</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1751225.47</t>
+          <t>1769407.38</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>526169.00</t>
+          <t>539969.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1822869.71</t>
+          <t>1889604.72</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>556380.81</t>
+          <t>572880.81</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2218686.79</t>
+          <t>2242686.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3760636.47</t>
+          <t>3804136.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>697</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2283574.78</t>
+          <t>2319021.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>460659.00</t>
+          <t>470859.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1205741.00</t>
+          <t>1240274.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>468812.39</t>
+          <t>488812.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48900.00</t>
+          <t>56250.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>778236.89</t>
+          <t>780236.89</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>562055.23</t>
+          <t>600155.23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>440699.98</t>
+          <t>484699.98</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>580972.25</t>
+          <t>591472.25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13109.00</t>
+          <t>19519.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1160354.43</t>
+          <t>1175854.43</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>660</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2714879.99</t>
+          <t>2729876.99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1617996.50</t>
+          <t>1641996.50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14289025.38</t>
+          <t>14294025.38</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>952</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3351064.26</t>
+          <t>3353064.26</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1769407.38</t>
+          <t>1777407.38</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>719</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1632584.94</t>
+          <t>1750599.94</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3782549.80</t>
+          <t>4005663.23</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3243097.76</t>
+          <t>3517411.30</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>46345.28</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>203835.52</t>
+          <t>206835.52</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2242686.79</t>
+          <t>2392441.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3804136.47</t>
+          <t>3856933.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>707</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2319021.78</t>
+          <t>2357134.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>164144.45</t>
+          <t>168144.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>585215.60</t>
+          <t>600225.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1449720.18</t>
+          <t>1466220.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>658476.34</t>
+          <t>669976.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>606362.00</t>
+          <t>641219.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1873774.13</t>
+          <t>1926266.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>445375.81</t>
+          <t>466601.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34971.00</t>
+          <t>40471.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>470859.00</t>
+          <t>484859.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1240274.00</t>
+          <t>1242274.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>780236.89</t>
+          <t>812736.89</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>610</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2496919.89</t>
+          <t>2626745.89</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>416</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1422480.57</t>
+          <t>1491467.57</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>49932.00</t>
+          <t>59932.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>891760.71</t>
+          <t>1056909.71</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>693504.04</t>
+          <t>736170.04</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>575671.14</t>
+          <t>655360.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>45492.85</t>
+          <t>49623.85</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>600155.23</t>
+          <t>625860.23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>484699.98</t>
+          <t>506699.98</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>591472.25</t>
+          <t>603208.25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>38755.00</t>
+          <t>40755.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1175854.43</t>
+          <t>1220904.16</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>689</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2729876.99</t>
+          <t>2993612.20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>477</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1641996.50</t>
+          <t>1796104.50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>5378</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8824141.47</t>
+          <t>12912294.42</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>148500.00</t>
+          <t>195600.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>4553</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14294025.38</t>
+          <t>17336332.62</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>54500.00</t>
+          <t>76500.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4195</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13339755.27</t>
+          <t>15458668.63</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>152670.00</t>
+          <t>154670.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>328110.47</t>
+          <t>390270.47</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>193416.69</t>
+          <t>295637.69</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>415368.00</t>
+          <t>547954.21</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>135177.00</t>
+          <t>161177.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2983,32 +2983,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>291450.00</t>
+          <t>14285.75</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>607326.60</t>
+          <t>291450.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>396518.88</t>
+          <t>607326.60</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>396518.88</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3151,32 +3151,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>98660.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>70496.05</t>
+          <t>98660.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>37700.00</t>
+          <t>70496.05</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3277,32 +3277,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>675799.00</t>
+          <t>37700.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1413899.36</t>
+          <t>677799.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>752812.51</t>
+          <t>1413899.36</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>752812.51</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>73000.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3487,32 +3487,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1004406.70</t>
+          <t>73000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>32254.00</t>
+          <t>1016506.70</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3353064.26</t>
+          <t>32254.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>967</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1777407.38</t>
+          <t>3440777.26</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>104500.00</t>
+          <t>1785907.38</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>156180.27</t>
+          <t>114500.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3739,32 +3739,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>896342.96</t>
+          <t>156180.27</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>896342.96</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2299933.70</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1431857.16</t>
+          <t>2299933.70</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>1431857.16</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>47006.23</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3991,32 +3991,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>539969.00</t>
+          <t>47006.23</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>545969.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1889604.72</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>532</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>572880.81</t>
+          <t>1941615.72</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>603923.09</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>24670.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4243,32 +4243,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1750599.94</t>
+          <t>24670.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>720</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>7571.16</t>
+          <t>1752599.94</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>22200.00</t>
+          <t>7571.16</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4005663.23</t>
+          <t>22200.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>4005663.23</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3517411.30</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>46345.28</t>
+          <t>3519536.30</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4537,30 +4537,72 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>46345.28</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>206835.52</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2392441.34</t>
+          <t>2810011.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3856933.58</t>
+          <t>4362344.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>725</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2357134.78</t>
+          <t>2493958.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>39498.41</t>
+          <t>41498.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>600225.52</t>
+          <t>622225.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1466220.18</t>
+          <t>1518611.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>669976.34</t>
+          <t>757545.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17950.00</t>
+          <t>27950.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>484859.00</t>
+          <t>490859.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1242274.00</t>
+          <t>13236.03</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>488812.39</t>
+          <t>1426699.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>594289.45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56250.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1387,32 +1387,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>291025.13</t>
+          <t>56250.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>458516.96</t>
+          <t>301025.13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>365094.60</t>
+          <t>488516.96</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>371094.60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1555,32 +1555,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>812736.89</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>830236.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2626745.89</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>626</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>2799076.89</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1491467.57</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>1503399.57</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>59932.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1056909.71</t>
+          <t>59932.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>736170.04</t>
+          <t>1056909.71</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>655360.14</t>
+          <t>736170.04</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>657360.14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>49623.85</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2059,32 +2059,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>625860.23</t>
+          <t>49623.85</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>506699.98</t>
+          <t>690282.23</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>603208.25</t>
+          <t>615699.98</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19519.00</t>
+          <t>664532.25</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>40755.00</t>
+          <t>19519.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2269,32 +2269,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1220904.16</t>
+          <t>51655.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>1410838.34</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2993612.20</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1796104.50</t>
+          <t>3378077.87</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>514</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>2073483.62</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>143011.07</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2521,32 +2521,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12912294.42</t>
+          <t>153011.07</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6012</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4800.00</t>
+          <t>14603704.75</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>195600.00</t>
+          <t>4800.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17336332.62</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>76500.00</t>
+          <t>195600.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>4762</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>15458668.63</t>
+          <t>18669842.69</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>154670.00</t>
+          <t>76500.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>390270.47</t>
+          <t>16537684.15</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -2857,32 +2857,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>295637.69</t>
+          <t>156670.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2899,32 +2899,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>547954.21</t>
+          <t>403270.47</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>161177.00</t>
+          <t>320241.16</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14285.75</t>
+          <t>549954.21</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3025,32 +3025,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>291450.00</t>
+          <t>161177.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3067,32 +3067,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>607326.60</t>
+          <t>14285.75</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>396518.88</t>
+          <t>291450.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>607326.60</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3193,32 +3193,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>98660.00</t>
+          <t>396518.88</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3235,32 +3235,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>70496.05</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>37700.00</t>
+          <t>145560.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3319,32 +3319,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>677799.00</t>
+          <t>74496.05</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3361,32 +3361,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1413899.36</t>
+          <t>39700.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>752812.51</t>
+          <t>677799.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>1413899.36</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>73000.00</t>
+          <t>752812.51</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3529,32 +3529,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1016506.70</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3571,32 +3571,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>32254.00</t>
+          <t>73000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>404</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3440777.26</t>
+          <t>1036006.70</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1785907.38</t>
+          <t>32254.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>977</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>114500.00</t>
+          <t>3676818.58</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>546</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>156180.27</t>
+          <t>1962881.43</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3781,32 +3781,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>896342.96</t>
+          <t>114500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3823,32 +3823,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>156180.27</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>615</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2299933.70</t>
+          <t>1562740.33</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1431857.16</t>
+          <t>12702.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>20500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>985</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>47006.23</t>
+          <t>3646770.55</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4033,32 +4033,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>708</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>545969.00</t>
+          <t>2236580.45</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4075,32 +4075,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>91206.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4117,32 +4117,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1941615.72</t>
+          <t>109571.23</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>603923.09</t>
+          <t>556590.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>24670.00</t>
+          <t>1969663.72</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4285,32 +4285,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1752599.94</t>
+          <t>632423.09</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4327,32 +4327,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>7571.16</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4374,27 +4374,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>22200.00</t>
+          <t>24670.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>835</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4005663.23</t>
+          <t>2028405.94</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>7571.16</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3519536.30</t>
+          <t>25700.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>46345.28</t>
+          <t>4292934.22</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>206835.52</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,10 +4599,136 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Société anonyme à conseil d'administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3742800.75</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Société par actions simplifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>48345.28</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>252629.45</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2810011.70</t>
+          <t>3007291.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4362344.72</t>
+          <t>4372820.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>737</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2493958.52</t>
+          <t>2610308.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>641219.00</t>
+          <t>647219.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1926266.13</t>
+          <t>1986149.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>466601.67</t>
+          <t>472601.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1426699.26</t>
+          <t>1468066.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>301025.13</t>
+          <t>313001.13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>488516.96</t>
+          <t>498516.96</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>371094.60</t>
+          <t>379045.60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>830236.89</t>
+          <t>844556.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>639</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2799076.89</t>
+          <t>2946876.47</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1503399.57</t>
+          <t>1540899.35</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1410838.34</t>
+          <t>1428838.34</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>739</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3378077.87</t>
+          <t>3414717.57</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2073483.62</t>
+          <t>2083483.62</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>979</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3676818.58</t>
+          <t>3731818.58</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>547</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1962881.43</t>
+          <t>1972881.43</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>156180.27</t>
+          <t>166180.27</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>667</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1562740.33</t>
+          <t>1684707.33</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3646770.55</t>
+          <t>3812141.44</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>724</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2236580.45</t>
+          <t>2319622.16</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>109571.23</t>
+          <t>121571.23</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2028405.94</t>
+          <t>2152465.94</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4292934.22</t>
+          <t>4447359.41</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3742800.75</t>
+          <t>3822979.27</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>252629.45</t>
+          <t>256647.45</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3007291.70</t>
+          <t>3416243.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4372820.27</t>
+          <t>4445207.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>750</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2610308.52</t>
+          <t>2677026.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>168144.45</t>
+          <t>170144.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>622225.52</t>
+          <t>685665.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1518611.18</t>
+          <t>1560611.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>757545.34</t>
+          <t>771545.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>647219.00</t>
+          <t>665219.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>527</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1986149.55</t>
+          <t>2021649.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>472601.67</t>
+          <t>551601.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>490859.00</t>
+          <t>536288.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1468066.26</t>
+          <t>1488305.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>594289.45</t>
+          <t>633289.45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>844556.89</t>
+          <t>889341.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2946876.47</t>
+          <t>3194383.47</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1540899.35</t>
+          <t>1610094.99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>66860.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>59932.00</t>
+          <t>61932.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1056909.71</t>
+          <t>1260613.65</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>736170.04</t>
+          <t>817750.04</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>657360.14</t>
+          <t>795974.14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>49623.85</t>
+          <t>53623.85</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>690282.23</t>
+          <t>756399.15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>615699.98</t>
+          <t>722333.98</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>664532.25</t>
+          <t>710032.25</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19519.00</t>
+          <t>23519.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1428838.34</t>
+          <t>1466838.34</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>751</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3414717.57</t>
+          <t>3502717.57</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2083483.62</t>
+          <t>2144483.62</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6012</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14603704.75</t>
+          <t>15683066.28</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>195600.00</t>
+          <t>205600.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4762</t>
+          <t>4874</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>18669842.69</t>
+          <t>19287073.30</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>4964</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16537684.15</t>
+          <t>16880511.05</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>403270.47</t>
+          <t>409614.47</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>549954.21</t>
+          <t>551954.21</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>145560.00</t>
+          <t>171460.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>74496.05</t>
+          <t>98866.05</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1036006.70</t>
+          <t>1110329.60</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3731818.58</t>
+          <t>4194170.88</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>557</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1972881.43</t>
+          <t>2209716.12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>114500.00</t>
+          <t>132078.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>166180.27</t>
+          <t>168180.27</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>671</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1684707.33</t>
+          <t>1692707.33</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3812141.44</t>
+          <t>3824759.84</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>727</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2319622.16</t>
+          <t>2325622.16</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>556590.00</t>
+          <t>563350.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>540</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1969663.72</t>
+          <t>2060616.16</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>632423.09</t>
+          <t>634423.09</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2152465.94</t>
+          <t>2305321.17</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4447359.41</t>
+          <t>4574359.41</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3822979.27</t>
+          <t>4144473.98</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1457</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3416243.70</t>
+          <t>3575243.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4445207.81</t>
+          <t>4465207.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>757</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2677026.29</t>
+          <t>2724526.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41498.41</t>
+          <t>44998.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>170144.45</t>
+          <t>180144.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>665219.00</t>
+          <t>667219.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>529</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021649.55</t>
+          <t>2033649.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>536288.00</t>
+          <t>551394.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1488305.26</t>
+          <t>1562254.69</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>633289.45</t>
+          <t>635289.45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>889341.89</t>
+          <t>909441.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>664</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3194383.47</t>
+          <t>3282831.87</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>438</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1610094.99</t>
+          <t>1664744.99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>756399.15</t>
+          <t>800923.15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>722333.98</t>
+          <t>731049.98</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>710032.25</t>
+          <t>833553.25</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>51655.00</t>
+          <t>70085.23</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>539</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1466838.34</t>
+          <t>1519521.23</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>763</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3502717.57</t>
+          <t>3591417.57</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>536</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2144483.62</t>
+          <t>2227039.97</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>17760.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>153011.07</t>
+          <t>163011.07</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>6401</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>15683066.28</t>
+          <t>15685066.28</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4874</t>
+          <t>4875</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>19287073.30</t>
+          <t>19322073.30</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>171460.00</t>
+          <t>199560.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>98866.05</t>
+          <t>109496.39</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>677799.00</t>
+          <t>757179.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1413899.36</t>
+          <t>1636446.36</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>752812.51</t>
+          <t>1031641.51</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>73000.00</t>
+          <t>81105.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1110329.60</t>
+          <t>1112329.60</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4194170.88</t>
+          <t>4243442.14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2209716.12</t>
+          <t>2253293.12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>132078.00</t>
+          <t>142078.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>730</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1692707.33</t>
+          <t>1837571.33</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3824759.84</t>
+          <t>4047515.84</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>743</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2325622.16</t>
+          <t>2394406.92</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4574359.41</t>
+          <t>4579359.41</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4144473.98</t>
+          <t>4150973.98</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>685665.52</t>
+          <t>734521.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1560611.18</t>
+          <t>1665937.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>771545.34</t>
+          <t>777545.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>667219.00</t>
+          <t>677228.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2033649.55</t>
+          <t>2127573.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>551601.67</t>
+          <t>632782.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>551394.00</t>
+          <t>561394.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>635289.45</t>
+          <t>667348.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>909441.89</t>
+          <t>913441.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>669</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3282831.87</t>
+          <t>3363553.58</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1664744.99</t>
+          <t>1742744.99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>66860.00</t>
+          <t>70360.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1519521.23</t>
+          <t>1562730.23</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>768</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3591417.57</t>
+          <t>3632535.81</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2227039.97</t>
+          <t>2259060.61</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6401</t>
+          <t>6874</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>15685066.28</t>
+          <t>16985237.44</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>205600.00</t>
+          <t>225600.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4875</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>19322073.30</t>
+          <t>20296376.72</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>5098</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16880511.05</t>
+          <t>17633645.96</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>409614.47</t>
+          <t>421171.47</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>199560.00</t>
+          <t>224560.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>109496.39</t>
+          <t>134436.39</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>39700.00</t>
+          <t>46020.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1112329.60</t>
+          <t>1139425.60</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4243442.14</t>
+          <t>4335654.62</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2253293.12</t>
+          <t>2263384.12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>142078.00</t>
+          <t>152078.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>563350.00</t>
+          <t>565350.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3801293.70</t>
+          <t>3870086.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4656913.81</t>
+          <t>4867950.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2824459.29</t>
+          <t>3096362.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>190144.45</t>
+          <t>192144.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>751921.52</t>
+          <t>780843.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1701937.18</t>
+          <t>2246809.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>820045.34</t>
+          <t>1177743.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>718229.01</t>
+          <t>814024.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2176573.55</t>
+          <t>3446481.24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>648531.67</t>
+          <t>767616.42</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>40471.00</t>
+          <t>42471.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30418.77</t>
+          <t>40418.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>581394.00</t>
+          <t>616245.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1827062.55</t>
+          <t>2265742.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>703489.27</t>
+          <t>865657.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>978557.89</t>
+          <t>1106179.09</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3736723.83</t>
+          <t>4609230.94</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1988481.71</t>
+          <t>2539661.28</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>61932.00</t>
+          <t>65432.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>536</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1298300.65</t>
+          <t>1395802.65</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>839250.04</t>
+          <t>861292.04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>803474.14</t>
+          <t>839460.95</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>989019.15</t>
+          <t>1110647.40</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>765549.98</t>
+          <t>842560.67</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1001692.25</t>
+          <t>1015692.25</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>641</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1648332.85</t>
+          <t>1844898.85</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3863014.42</t>
+          <t>5496216.43</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2378965.61</t>
+          <t>3391902.84</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>167011.07</t>
+          <t>177011.07</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6880</t>
+          <t>8342</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16998737.44</t>
+          <t>21422749.15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>225600.00</t>
+          <t>277600.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>5703</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20296376.72</t>
+          <t>25226744.02</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>76500.00</t>
+          <t>121500.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5100</t>
+          <t>5669</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17713766.96</t>
+          <t>21450984.74</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>156670.00</t>
+          <t>166670.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>421171.47</t>
+          <t>489315.40</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>757179.00</t>
+          <t>812360.35</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>461</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1636446.36</t>
+          <t>2437807.65</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1031641.51</t>
+          <t>1612534.51</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1163569.80</t>
+          <t>1255768.80</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4871274.63</t>
+          <t>6972462.63</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>607</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2413113.12</t>
+          <t>3186176.81</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>152078.00</t>
+          <t>172078.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>172930.27</t>
+          <t>182727.77</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1838718.91</t>
+          <t>1862718.91</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4065814.84</t>
+          <t>4538945.84</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>762</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2411031.92</t>
+          <t>2926330.18</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>121571.23</t>
+          <t>123571.23</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>569350.00</t>
+          <t>583350.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2444258.92</t>
+          <t>2774601.99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>731066.11</t>
+          <t>796666.11</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>24670.00</t>
+          <t>34670.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2755521.17</t>
+          <t>3121613.28</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>25700.00</t>
+          <t>37560.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>1422</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4946010.10</t>
+          <t>6454511.94</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1384</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4566313.36</t>
+          <t>5715262.90</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>264576.45</t>
+          <t>297729.61</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3870086.96</t>
+          <t>4226936.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4867950.40</t>
+          <t>6405724.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>867</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3096362.16</t>
+          <t>3896453.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>192144.45</t>
+          <t>221070.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>780843.05</t>
+          <t>841266.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2246809.45</t>
+          <t>2570799.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1177743.34</t>
+          <t>1325466.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>814024.01</t>
+          <t>982376.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>640</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3446481.24</t>
+          <t>5158888.72</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>767616.42</t>
+          <t>1209225.93</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>40418.77</t>
+          <t>44309.04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>616245.00</t>
+          <t>698413.14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>430</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2265742.61</t>
+          <t>2498187.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>865657.27</t>
+          <t>1038686.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>56250.00</t>
+          <t>58250.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1106179.09</t>
+          <t>1208791.11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>40000.00</t>
+          <t>50000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>782</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4609230.94</t>
+          <t>5133127.55</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2539661.28</t>
+          <t>2711240.28</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>65432.00</t>
+          <t>75432.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>567</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1395802.65</t>
+          <t>1496968.32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>861292.04</t>
+          <t>912292.04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>839460.95</t>
+          <t>883238.72</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1110647.40</t>
+          <t>1397718.40</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>842560.67</t>
+          <t>1016977.39</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1015692.25</t>
+          <t>1100076.19</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>70085.23</t>
+          <t>82085.23</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>701</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1844898.85</t>
+          <t>2038180.93</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>940</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5496216.43</t>
+          <t>5863690.56</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>671</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3391902.84</t>
+          <t>3555468.96</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8342</t>
+          <t>8767</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21422749.15</t>
+          <t>22752081.68</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>277600.00</t>
+          <t>307600.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>6049</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>25226744.02</t>
+          <t>28120428.74</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>121500.00</t>
+          <t>230000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5669</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>21450984.74</t>
+          <t>23625494.17</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>166670.00</t>
+          <t>174170.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>489315.40</t>
+          <t>525315.40</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>291450.00</t>
+          <t>444150.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>607326.60</t>
+          <t>737482.59</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>396518.88</t>
+          <t>468744.35</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>28421.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>465560.00</t>
+          <t>487784.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>812360.35</t>
+          <t>948768.30</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2437807.65</t>
+          <t>2941810.53</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1612534.51</t>
+          <t>2020164.29</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1255768.80</t>
+          <t>1294368.80</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>32254.00</t>
+          <t>42254.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6972462.63</t>
+          <t>7608638.94</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3186176.81</t>
+          <t>3517220.36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>182727.77</t>
+          <t>189227.77</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>779</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1862718.91</t>
+          <t>2086083.64</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4538945.84</t>
+          <t>5147824.50</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2926330.18</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>814</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>91206.00</t>
+          <t>3493559.88</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>123571.23</t>
+          <t>91206.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4201,32 +4201,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>583350.00</t>
+          <t>133571.23</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>591350.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2774601.99</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>607</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>796666.11</t>
+          <t>3509341.95</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>34670.00</t>
+          <t>911096.11</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4453,32 +4453,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3121613.28</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4495,32 +4495,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>7571.16</t>
+          <t>34670.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>37560.00</t>
+          <t>3363754.28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>6454511.94</t>
+          <t>7571.16</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>47560.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5715262.90</t>
+          <t>7250036.93</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>50345.28</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>297729.61</t>
+          <t>6230699.20</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,10 +4767,94 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Société par actions simplifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>55345.28</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>360788.23</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4226936.79</t>
+          <t>4240936.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6405724.18</t>
+          <t>6531279.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>875</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3896453.05</t>
+          <t>4062290.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>982376.49</t>
+          <t>996376.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>647</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5158888.72</t>
+          <t>5193950.22</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1209225.93</t>
+          <t>1235955.93</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>42471.00</t>
+          <t>44471.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>698413.14</t>
+          <t>700413.14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2498187.61</t>
+          <t>2641362.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1038686.27</t>
+          <t>1050686.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>421</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1208791.11</t>
+          <t>1228591.11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>790</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5133127.55</t>
+          <t>5185067.39</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>518</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2711240.28</t>
+          <t>2779259.92</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1397718.40</t>
+          <t>1410679.40</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1100076.19</t>
+          <t>1109405.19</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2038180.93</t>
+          <t>2206051.35</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>25176.00</t>
+          <t>30176.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>976</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5863690.56</t>
+          <t>6156002.45</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>707</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3555468.96</t>
+          <t>3804250.37</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8767</t>
+          <t>9733</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22752081.68</t>
+          <t>26890502.14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4800.00</t>
+          <t>8100.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>307600.00</t>
+          <t>368009.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6049</t>
+          <t>6644</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>28120428.74</t>
+          <t>33086824.23</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>230000.00</t>
+          <t>240000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>6500</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>23625494.17</t>
+          <t>27445116.36</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>174170.00</t>
+          <t>197070.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>525315.40</t>
+          <t>656607.46</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>948768.30</t>
+          <t>962768.30</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2941810.53</t>
+          <t>2953810.53</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020164.29</t>
+          <t>2022164.29</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1294368.80</t>
+          <t>1310998.80</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7608638.94</t>
+          <t>7698688.19</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>632</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3517220.36</t>
+          <t>3617090.36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2086083.64</t>
+          <t>2415292.79</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20500.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5147824.50</t>
+          <t>6630697.18</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>896</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3493559.88</t>
+          <t>4337866.84</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>133571.23</t>
+          <t>154152.23</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3363754.28</t>
+          <t>3365754.28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4263925.64</t>
+          <t>4286914.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6656325.71</t>
+          <t>6764472.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>882</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4103040.54</t>
+          <t>4128790.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>873239.26</t>
+          <t>905212.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2657401.28</t>
+          <t>2744003.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>439</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2665680.61</t>
+          <t>2689998.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>438</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1264670.11</t>
+          <t>1290569.11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5287057.92</t>
+          <t>5340051.92</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2876751.12</t>
+          <t>2953342.32</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>585</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1522170.32</t>
+          <t>1536372.32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1251180.04</t>
+          <t>1293780.04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>905879.72</t>
+          <t>924520.72</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1584618.17</t>
+          <t>1758556.94</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1087887.39</t>
+          <t>1158797.39</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1218775.19</t>
+          <t>1328145.19</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>102133.23</t>
+          <t>122181.23</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>762</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2250051.35</t>
+          <t>2278051.35</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>995</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6288549.81</t>
+          <t>6364799.81</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>722</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3911736.37</t>
+          <t>3980122.37</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10111</t>
+          <t>10489</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>29025071.82</t>
+          <t>31159641.50</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>396009.00</t>
+          <t>424009.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6797</t>
+          <t>6948</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>34341948.76</t>
+          <t>35542073.29</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>246500.00</t>
+          <t>253000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6657</t>
+          <t>6810</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>28470862.35</t>
+          <t>29468918.34</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>674657.46</t>
+          <t>686657.46</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1316695.80</t>
+          <t>1322392.80</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7709588.19</t>
+          <t>7720488.19</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3627090.36</t>
+          <t>3637090.36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>178578.00</t>
+          <t>185078.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>931</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2506990.79</t>
+          <t>2554538.79</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7312895.36</t>
+          <t>7953593.54</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>942</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4725275.56</t>
+          <t>5112684.28</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>101206.00</t>
+          <t>111206.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>646350.00</t>
+          <t>648350.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3424754.28</t>
+          <t>3479754.28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7612841.24</t>
+          <t>7643841.24</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>1495</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6632969.63</t>
+          <t>6670911.06</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1290569.11</t>
+          <t>1300749.11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>819</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5340051.92</t>
+          <t>5354648.45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>548</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2953342.32</t>
+          <t>2974242.32</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>591</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1536372.32</t>
+          <t>1547372.32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1293780.04</t>
+          <t>1590068.04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>924520.72</t>
+          <t>928520.72</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>996</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6364799.81</t>
+          <t>6372799.81</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6948</t>
+          <t>6950</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>35542073.29</t>
+          <t>35597073.29</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6810</t>
+          <t>6812</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>29468918.34</t>
+          <t>29488918.34</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>686657.46</t>
+          <t>692707.46</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3479754.28</t>
+          <t>3483754.28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7643841.24</t>
+          <t>7975645.55</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6670911.06</t>
+          <t>7035240.06</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9593127.25</t>
+          <t>9595127.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5861290.38</t>
+          <t>5886590.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1085310.23</t>
+          <t>1090826.23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8062057.28</t>
+          <t>8291040.22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4936090.28</t>
+          <t>5030000.28</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10143</t>
+          <t>10144</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>29323153.25</t>
+          <t>29325153.25</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6682</t>
+          <t>6684</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>28861781.83</t>
+          <t>28881781.83</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4414105.68</t>
+          <t>4458316.04</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3793586.09</t>
+          <t>3795586.09</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11085651.35</t>
+          <t>11051651.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6900197.66</t>
+          <t>6898667.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1039706.10</t>
+          <t>1023801.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3815458.66</t>
+          <t>3745714.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1799569.34</t>
+          <t>1709569.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>701</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6526076.30</t>
+          <t>6489679.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>744139.14</t>
+          <t>725674.14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3586044.75</t>
+          <t>3439193.87</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1396479.21</t>
+          <t>1371733.23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1430342.48</t>
+          <t>1424472.48</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>868</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6886651.94</t>
+          <t>6520658.93</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3473830.84</t>
+          <t>3415066.84</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>514</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026889.17</t>
+          <t>1909389.17</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1288625.38</t>
+          <t>1193196.38</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1345741.02</t>
+          <t>1318641.02</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8368747.48</t>
+          <t>8256160.48</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5102970.45</t>
+          <t>5064035.93</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6820</t>
+          <t>6818</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>34966641.31</t>
+          <t>34924356.76</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>741482.59</t>
+          <t>739482.59</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1053695.80</t>
+          <t>1019658.30</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3650765.72</t>
+          <t>3194124.30</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2595570.99</t>
+          <t>2180416.07</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1470152.96</t>
+          <t>1440772.96</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10256416.17</t>
+          <t>9868167.91</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>664</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4769396.04</t>
+          <t>4416787.10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>994</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2839424.58</t>
+          <t>2812211.79</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>9423818.91</t>
+          <t>8506487.80</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>969</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>6109118.94</t>
+          <t>5402275.54</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9756214.95</t>
+          <t>9297300.59</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>9062315.02</t>
+          <t>8630207.85</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>407961.23</t>
+          <t>378788.23</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11051651.35</t>
+          <t>11085651.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6898667.66</t>
+          <t>6900197.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1023801.26</t>
+          <t>1039706.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3745714.31</t>
+          <t>3815458.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1709569.34</t>
+          <t>1799569.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1909389.17</t>
+          <t>2026889.17</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1193196.38</t>
+          <t>1288625.38</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1318641.02</t>
+          <t>1345741.02</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8256160.48</t>
+          <t>8368747.48</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>797</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5064035.93</t>
+          <t>5102970.45</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1019658.30</t>
+          <t>1053695.80</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3194124.30</t>
+          <t>3650765.72</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2180416.07</t>
+          <t>2595570.99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1440772.96</t>
+          <t>1450372.96</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9868167.91</t>
+          <t>10051714.73</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>668</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4416787.10</t>
+          <t>4526673.10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>997</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2812211.79</t>
+          <t>2839424.58</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>8506487.80</t>
+          <t>9423818.91</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>994</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5402275.54</t>
+          <t>6109118.94</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9297300.59</t>
+          <t>9464993.02</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>8630207.85</t>
+          <t>8665387.85</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>880</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6520658.93</t>
+          <t>6781477.60</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3415066.84</t>
+          <t>3473830.84</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10051714.73</t>
+          <t>10155451.53</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>670</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4526673.10</t>
+          <t>4587544.33</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1039706.10</t>
+          <t>1042987.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>532</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3815458.66</t>
+          <t>3836269.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>707</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6489679.30</t>
+          <t>6573657.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>725674.14</t>
+          <t>744139.14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3439193.87</t>
+          <t>3586044.75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1371733.23</t>
+          <t>1396479.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>882</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6781477.60</t>
+          <t>6849402.60</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>798</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5102970.45</t>
+          <t>5186204.95</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6818</t>
+          <t>6819</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>34924356.76</t>
+          <t>34930560.31</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>739482.59</t>
+          <t>741482.59</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>455</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1450372.96</t>
+          <t>1479752.96</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10155451.53</t>
+          <t>10205367.06</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>671</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4587544.33</t>
+          <t>4611277.80</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>693250.00</t>
+          <t>738250.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4414105.68</t>
+          <t>4504105.68</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9464993.02</t>
+          <t>9801214.95</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>8665387.85</t>
+          <t>9105315.02</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>378788.23</t>
+          <t>407961.23</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1424472.48</t>
+          <t>1430342.48</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>883</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6849402.60</t>
+          <t>6886651.94</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6819</t>
+          <t>6820</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>34930560.31</t>
+          <t>34966641.31</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10205367.06</t>
+          <t>10292750.17</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>677</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4611277.80</t>
+          <t>4769396.04</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10149</t>
+          <t>10142</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>29411567.74</t>
+          <t>29239254.74</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>6725</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>30627905.08</t>
+          <t>30592729.83</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>572</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3820238.64</t>
+          <t>3831528.78</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2510965.54</t>
+          <t>2522695.54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>812</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5476154.76</t>
+          <t>5537284.76</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3293,17 +3293,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>372491.16</t>
+          <t>374491.16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3481,17 +3481,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>189</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>463050.00</t>
+          <t>530310.00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3528,17 +3528,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>257</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>741482.59</t>
+          <t>873089.81</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>192</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>495604.35</t>
+          <t>563604.35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -755,17 +755,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1048126.48</t>
+          <t>1088667.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>491</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3931940.27</t>
+          <t>4231204.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1843204.49</t>
+          <t>2184224.49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>898</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7096362.17</t>
+          <t>7313713.66</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>8790373.05</t>
+          <t>9030924.05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>814</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5537284.76</t>
+          <t>5619450.79</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6746</t>
+          <t>6749</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>30896875.12</t>
+          <t>31007350.12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>380050.00</t>
+          <t>425050.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -849,17 +849,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>493</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4231204.00</t>
+          <t>4545867.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2184224.49</t>
+          <t>2298317.49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>383149.35</t>
+          <t>403130.37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>869193.73</t>
+          <t>937067.73</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>658789.60</t>
+          <t>703789.60</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>425050.00</t>
+          <t>470050.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10818964.05</t>
+          <t>10868143.05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -520,17 +520,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13231924.70</t>
+          <t>13241924.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -614,17 +614,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>968</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7830141.57</t>
+          <t>7840141.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3885947.17</t>
+          <t>3962452.17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1475556.64</t>
+          <t>1497756.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>573</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3831528.78</t>
+          <t>3858033.56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3058,17 +3058,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6895</t>
+          <t>6904</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6509</t>
+          <t>6511</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>37437310.05</t>
+          <t>37769652.78</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>313251.06</t>
+          <t>397400.20</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6749</t>
+          <t>6751</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>31007350.12</t>
+          <t>31094761.20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1479752.96</t>
+          <t>1490029.96</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -426,17 +426,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>1768</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4910617.65</t>
+          <t>4912617.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,17 +520,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13724518.70</t>
+          <t>13979280.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -614,17 +614,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>976</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8207347.24</t>
+          <t>8537679.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -708,17 +708,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>271490.31</t>
+          <t>341479.04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1088667.48</t>
+          <t>1093117.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>572</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4557739.98</t>
+          <t>4594980.95</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2298317.49</t>
+          <t>2303998.53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>758</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7947112.98</t>
+          <t>7976231.09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3979210.52</t>
+          <t>4046173.52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>191</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1497756.95</t>
+          <t>1541795.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>403130.37</t>
+          <t>408545.37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1648,17 +1648,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>980467.73</t>
+          <t>1134374.44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>744734.60</t>
+          <t>914082.27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22512.25</t>
+          <t>36529.93</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1836,17 +1836,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>451</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1435865.48</t>
+          <t>1459557.67</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1930,17 +1930,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>801</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7313713.66</t>
+          <t>7438381.68</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2142024.31</t>
+          <t>2187024.31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>817</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5619450.79</t>
+          <t>5685763.42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3058,17 +3058,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6924</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6518</t>
+          <t>6519</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>38211984.35</t>
+          <t>38486610.66</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3152,17 +3152,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6755</t>
+          <t>6760</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6359</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>31229646.20</t>
+          <t>31392151.20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>698941.77</t>
+          <t>743941.77</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>457</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1490029.96</t>
+          <t>1494763.96</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10868143.05</t>
+          <t>10936213.05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4468,17 +4468,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>11678690.92</t>
+          <t>11730443.14</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4562,17 +4562,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>940</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7645676.97</t>
+          <t>7760878.44</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4797,17 +4797,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>615</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5923970.96</t>
+          <t>6408121.82</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>212</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1647729.55</t>
+          <t>1701028.63</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3918816.09</t>
+          <t>3920346.09</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1748</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>10465110.83</t>
+          <t>10753578.75</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>9468040.72</t>
+          <t>9503906.88</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -55,13 +55,13 @@
     <t>7</t>
   </si>
   <si>
-    <t>1608</t>
+    <t>1610</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>1119</t>
+    <t>1120</t>
   </si>
   <si>
     <t>21</t>
@@ -121,7 +121,7 @@
     <t>154</t>
   </si>
   <si>
-    <t>181</t>
+    <t>182</t>
   </si>
   <si>
     <t>157</t>
@@ -247,10 +247,10 @@
     <t>1046</t>
   </si>
   <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>1096</t>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>1098</t>
   </si>
   <si>
     <t>36</t>
@@ -283,10 +283,10 @@
     <t>1768</t>
   </si>
   <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>976</t>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>977</t>
   </si>
   <si>
     <t>20</t>
@@ -424,7 +424,7 @@
     <t>1323</t>
   </si>
   <si>
-    <t>940</t>
+    <t>941</t>
   </si>
   <si>
     <t>33</t>
@@ -460,13 +460,13 @@
     <t>36216.00</t>
   </si>
   <si>
-    <t>13979280.60</t>
+    <t>14007320.94</t>
   </si>
   <si>
     <t>12500.00</t>
   </si>
   <si>
-    <t>8537679.67</t>
+    <t>8582679.67</t>
   </si>
   <si>
     <t>46998.41</t>
@@ -532,7 +532,7 @@
     <t>408545.37</t>
   </si>
   <si>
-    <t>1134374.44</t>
+    <t>1151374.44</t>
   </si>
   <si>
     <t>914082.27</t>
@@ -703,13 +703,13 @@
     <t>12702.00</t>
   </si>
   <si>
-    <t>11730443.14</t>
+    <t>11778274.14</t>
   </si>
   <si>
     <t>143007.00</t>
   </si>
   <si>
-    <t>7760878.44</t>
+    <t>7799142.44</t>
   </si>
   <si>
     <t>104206.00</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -55,7 +55,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>1610</t>
+    <t>1611</t>
   </si>
   <si>
     <t>4</t>
@@ -229,7 +229,7 @@
     <t>554</t>
   </si>
   <si>
-    <t>333</t>
+    <t>335</t>
   </si>
   <si>
     <t>457</t>
@@ -283,7 +283,7 @@
     <t>1768</t>
   </si>
   <si>
-    <t>1382</t>
+    <t>1383</t>
   </si>
   <si>
     <t>977</t>
@@ -460,7 +460,7 @@
     <t>36216.00</t>
   </si>
   <si>
-    <t>14007320.94</t>
+    <t>14017320.94</t>
   </si>
   <si>
     <t>12500.00</t>
@@ -670,7 +670,7 @@
     <t>4291216.19</t>
   </si>
   <si>
-    <t>3224370.00</t>
+    <t>3242440.00</t>
   </si>
   <si>
     <t>47500.00</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -187,13 +187,13 @@
     <t>53</t>
   </si>
   <si>
-    <t>6924</t>
+    <t>6925</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>6760</t>
+    <t>6761</t>
   </si>
   <si>
     <t>68</t>
@@ -274,7 +274,7 @@
     <t>1748</t>
   </si>
   <si>
-    <t>1687</t>
+    <t>1688</t>
   </si>
   <si>
     <t>84</t>
@@ -379,7 +379,7 @@
     <t>6519</t>
   </si>
   <si>
-    <t>6359</t>
+    <t>6360</t>
   </si>
   <si>
     <t>62</t>
@@ -616,13 +616,13 @@
     <t>441009.00</t>
   </si>
   <si>
-    <t>38486610.66</t>
+    <t>38531610.66</t>
   </si>
   <si>
     <t>397400.20</t>
   </si>
   <si>
-    <t>31392151.20</t>
+    <t>31402151.20</t>
   </si>
   <si>
     <t>197070.00</t>
@@ -751,7 +751,7 @@
     <t>17500.00</t>
   </si>
   <si>
-    <t>9503906.88</t>
+    <t>9510652.29</t>
   </si>
   <si>
     <t>55345.28</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -172,7 +172,7 @@
     <t>833</t>
   </si>
   <si>
-    <t>1183</t>
+    <t>1184</t>
   </si>
   <si>
     <t>817</t>
@@ -202,7 +202,7 @@
     <t>137</t>
   </si>
   <si>
-    <t>156</t>
+    <t>160</t>
   </si>
   <si>
     <t>197</t>
@@ -361,7 +361,7 @@
     <t>775</t>
   </si>
   <si>
-    <t>955</t>
+    <t>956</t>
   </si>
   <si>
     <t>660</t>
@@ -598,7 +598,7 @@
     <t>46676.00</t>
   </si>
   <si>
-    <t>9077098.85</t>
+    <t>9087098.85</t>
   </si>
   <si>
     <t>5685763.42</t>
@@ -631,7 +631,7 @@
     <t>743941.77</t>
   </si>
   <si>
-    <t>374491.16</t>
+    <t>382491.16</t>
   </si>
   <si>
     <t>845710.65</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -181,19 +181,19 @@
     <t>35</t>
   </si>
   <si>
-    <t>10149</t>
+    <t>10151</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>6925</t>
+    <t>6927</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>6761</t>
+    <t>6762</t>
   </si>
   <si>
     <t>68</t>
@@ -376,7 +376,7 @@
     <t>52</t>
   </si>
   <si>
-    <t>6519</t>
+    <t>6520</t>
   </si>
   <si>
     <t>6360</t>
@@ -610,19 +610,19 @@
     <t>192679.05</t>
   </si>
   <si>
-    <t>29278930.99</t>
+    <t>29335796.27</t>
   </si>
   <si>
     <t>441009.00</t>
   </si>
   <si>
-    <t>38531610.66</t>
+    <t>38620825.45</t>
   </si>
   <si>
     <t>397400.20</t>
   </si>
   <si>
-    <t>31402151.20</t>
+    <t>31447151.20</t>
   </si>
   <si>
     <t>197070.00</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -55,7 +55,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>1611</t>
+    <t>1613</t>
   </si>
   <si>
     <t>4</t>
@@ -193,7 +193,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>6762</t>
+    <t>6763</t>
   </si>
   <si>
     <t>68</t>
@@ -460,7 +460,7 @@
     <t>36216.00</t>
   </si>
   <si>
-    <t>14017320.94</t>
+    <t>14056319.83</t>
   </si>
   <si>
     <t>12500.00</t>
@@ -622,7 +622,7 @@
     <t>397400.20</t>
   </si>
   <si>
-    <t>31447151.20</t>
+    <t>31480526.20</t>
   </si>
   <si>
     <t>197070.00</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="290">
   <si>
     <t>dispositif</t>
   </si>
@@ -49,13 +49,13 @@
     <t>VOLET2</t>
   </si>
   <si>
-    <t>1890</t>
+    <t>1891</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>1613</t>
+    <t>1615</t>
   </si>
   <si>
     <t>4</t>
@@ -187,7 +187,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>6927</t>
+    <t>6929</t>
   </si>
   <si>
     <t>27</t>
@@ -205,18 +205,18 @@
     <t>160</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
     <t>197</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
     <t>217</t>
   </si>
   <si>
@@ -283,7 +283,7 @@
     <t>1768</t>
   </si>
   <si>
-    <t>1383</t>
+    <t>1384</t>
   </si>
   <si>
     <t>977</t>
@@ -388,6 +388,9 @@
     <t>124</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
@@ -454,13 +457,13 @@
     <t>76</t>
   </si>
   <si>
-    <t>4912617.65</t>
+    <t>4916645.43</t>
   </si>
   <si>
     <t>36216.00</t>
   </si>
   <si>
-    <t>14056319.83</t>
+    <t>14084567.83</t>
   </si>
   <si>
     <t>12500.00</t>
@@ -616,7 +619,7 @@
     <t>441009.00</t>
   </si>
   <si>
-    <t>38620825.45</t>
+    <t>38710825.45</t>
   </si>
   <si>
     <t>397400.20</t>
@@ -634,10 +637,10 @@
     <t>382491.16</t>
   </si>
   <si>
-    <t>845710.65</t>
-  </si>
-  <si>
-    <t>470050.00</t>
+    <t>1125214.09</t>
+  </si>
+  <si>
+    <t>689423.00</t>
   </si>
   <si>
     <t>14285.75</t>
@@ -1287,19 +1290,19 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1316,19 +1319,19 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H3" t="s">
         <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1345,19 +1348,19 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H4" t="s">
         <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1374,19 +1377,19 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1403,19 +1406,19 @@
         <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1432,19 +1435,19 @@
         <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1461,19 +1464,19 @@
         <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1490,19 +1493,19 @@
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1519,19 +1522,19 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H10" t="s">
         <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1548,19 +1551,19 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
         <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1577,19 +1580,19 @@
         <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1606,19 +1609,19 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
         <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1635,19 +1638,19 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1664,19 +1667,19 @@
         <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1693,19 +1696,19 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H16" t="s">
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1722,19 +1725,19 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H17" t="s">
         <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1751,19 +1754,19 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1780,19 +1783,19 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1809,19 +1812,19 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1838,19 +1841,19 @@
         <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1867,19 +1870,19 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H22" t="s">
         <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1896,19 +1899,19 @@
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H23" t="s">
         <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1925,19 +1928,19 @@
         <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1954,19 +1957,19 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1983,19 +1986,19 @@
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2012,19 +2015,19 @@
         <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H27" t="s">
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2041,19 +2044,19 @@
         <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H28" t="s">
         <v>92</v>
       </c>
       <c r="I28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2070,19 +2073,19 @@
         <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2099,19 +2102,19 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2128,19 +2131,19 @@
         <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2157,19 +2160,19 @@
         <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H32" t="s">
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2186,19 +2189,19 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2215,19 +2218,19 @@
         <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H34" t="s">
         <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2244,19 +2247,19 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2273,19 +2276,19 @@
         <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2302,19 +2305,19 @@
         <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2331,19 +2334,19 @@
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2360,19 +2363,19 @@
         <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2389,19 +2392,19 @@
         <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H40" t="s">
         <v>92</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2418,19 +2421,19 @@
         <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2447,19 +2450,19 @@
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2476,19 +2479,19 @@
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2505,19 +2508,19 @@
         <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H44" t="s">
         <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2534,19 +2537,19 @@
         <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H45" t="s">
         <v>92</v>
       </c>
       <c r="I45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2563,19 +2566,19 @@
         <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2592,19 +2595,19 @@
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I47" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2621,19 +2624,19 @@
         <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2650,19 +2653,19 @@
         <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2679,19 +2682,19 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G50" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H50" t="s">
         <v>119</v>
       </c>
       <c r="I50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2708,19 +2711,19 @@
         <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H51" t="s">
         <v>92</v>
       </c>
       <c r="I51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2737,19 +2740,19 @@
         <v>116</v>
       </c>
       <c r="E52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2766,19 +2769,19 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2795,19 +2798,19 @@
         <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2824,19 +2827,19 @@
         <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F55" t="s">
         <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H55" t="s">
         <v>38</v>
       </c>
       <c r="I55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2853,19 +2856,19 @@
         <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H56" t="s">
         <v>42</v>
       </c>
       <c r="I56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2882,19 +2885,19 @@
         <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F57" t="s">
         <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H57" t="s">
         <v>119</v>
       </c>
       <c r="I57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2911,19 +2914,19 @@
         <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F58" t="s">
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H58" t="s">
         <v>92</v>
       </c>
       <c r="I58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2940,19 +2943,19 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F59" t="s">
         <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2969,19 +2972,19 @@
         <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F60" t="s">
         <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I60" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2998,19 +3001,19 @@
         <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F61" t="s">
         <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H61" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3027,19 +3030,19 @@
         <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F62" t="s">
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3056,19 +3059,19 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H63" t="s">
         <v>38</v>
       </c>
       <c r="I63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3079,25 +3082,25 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H64" t="s">
         <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3108,25 +3111,25 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3143,19 +3146,19 @@
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3166,25 +3169,25 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H67" t="s">
         <v>38</v>
       </c>
       <c r="I67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3195,25 +3198,25 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H68" t="s">
         <v>92</v>
       </c>
       <c r="I68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3224,25 +3227,25 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H69" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3259,19 +3262,19 @@
         <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3285,22 +3288,22 @@
         <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H71" t="s">
         <v>38</v>
       </c>
       <c r="I71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3317,19 +3320,19 @@
         <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H72" t="s">
         <v>92</v>
       </c>
       <c r="I72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3346,19 +3349,19 @@
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I73" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3372,22 +3375,22 @@
         <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H74" t="s">
         <v>38</v>
       </c>
       <c r="I74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3401,22 +3404,22 @@
         <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H75" t="s">
         <v>92</v>
       </c>
       <c r="I75" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3433,19 +3436,19 @@
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H76" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I76" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3462,19 +3465,19 @@
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H77" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I77" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3491,19 +3494,19 @@
         <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H78" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3517,22 +3520,22 @@
         <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H79" t="s">
         <v>38</v>
       </c>
       <c r="I79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3549,19 +3552,19 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H80" t="s">
         <v>119</v>
       </c>
       <c r="I80" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3575,22 +3578,22 @@
         <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H81" t="s">
         <v>92</v>
       </c>
       <c r="I81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3607,19 +3610,19 @@
         <v>108</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I82" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3636,19 +3639,19 @@
         <v>75</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G83" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3662,22 +3665,22 @@
         <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G84" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I84" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3691,22 +3694,22 @@
         <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H85" t="s">
         <v>38</v>
       </c>
       <c r="I85" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3723,19 +3726,19 @@
         <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H86" t="s">
         <v>42</v>
       </c>
       <c r="I86" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3752,19 +3755,19 @@
         <v>104</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H87" t="s">
         <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3778,22 +3781,22 @@
         <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F88" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H88" t="s">
         <v>92</v>
       </c>
       <c r="I88" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3810,19 +3813,19 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I89" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3836,22 +3839,22 @@
         <v>78</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I90" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3865,22 +3868,22 @@
         <v>79</v>
       </c>
       <c r="D91" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F91" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G91" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3894,22 +3897,22 @@
         <v>80</v>
       </c>
       <c r="D92" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I92" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3923,22 +3926,22 @@
         <v>81</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F93" t="s">
         <v>119</v>
       </c>
       <c r="G93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H93" t="s">
         <v>38</v>
       </c>
       <c r="I93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3955,19 +3958,19 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F94" t="s">
         <v>119</v>
       </c>
       <c r="G94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H94" t="s">
         <v>119</v>
       </c>
       <c r="I94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3981,22 +3984,22 @@
         <v>82</v>
       </c>
       <c r="D95" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
         <v>119</v>
       </c>
       <c r="G95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H95" t="s">
         <v>92</v>
       </c>
       <c r="I95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4010,22 +4013,22 @@
         <v>83</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F96" t="s">
         <v>119</v>
       </c>
       <c r="G96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I96" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4042,19 +4045,19 @@
         <v>50</v>
       </c>
       <c r="E97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F97" t="s">
         <v>119</v>
       </c>
       <c r="G97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4071,19 +4074,19 @@
         <v>38</v>
       </c>
       <c r="E98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F98" t="s">
         <v>119</v>
       </c>
       <c r="G98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H98" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4097,22 +4100,22 @@
         <v>84</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F99" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H99" t="s">
         <v>38</v>
       </c>
       <c r="I99" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4129,19 +4132,19 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H100" t="s">
         <v>42</v>
       </c>
       <c r="I100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4158,19 +4161,19 @@
         <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H101" t="s">
         <v>119</v>
       </c>
       <c r="I101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4184,22 +4187,22 @@
         <v>85</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H102" t="s">
         <v>92</v>
       </c>
       <c r="I102" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4216,19 +4219,19 @@
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I103" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4242,22 +4245,22 @@
         <v>86</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G104" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H104" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I104" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4274,19 +4277,19 @@
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4300,22 +4303,22 @@
         <v>87</v>
       </c>
       <c r="D106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G106" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H106" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -109,7 +109,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>484</t>
+    <t>487</t>
   </si>
   <si>
     <t>13</t>
@@ -520,7 +520,7 @@
     <t>13236.03</t>
   </si>
   <si>
-    <t>4046173.52</t>
+    <t>4050154.52</t>
   </si>
   <si>
     <t>1541795.95</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -232,13 +232,13 @@
     <t>335</t>
   </si>
   <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>691</t>
+    <t>459</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>696</t>
   </si>
   <si>
     <t>46</t>
@@ -682,16 +682,16 @@
     <t>83683.00</t>
   </si>
   <si>
-    <t>1494763.96</t>
+    <t>1498354.96</t>
   </si>
   <si>
     <t>42254.00</t>
   </si>
   <si>
-    <t>10936213.05</t>
-  </si>
-  <si>
-    <t>5100613.98</t>
+    <t>10993773.05</t>
+  </si>
+  <si>
+    <t>5109115.51</t>
   </si>
   <si>
     <t>188578.00</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -238,7 +238,7 @@
     <t>1331</t>
   </si>
   <si>
-    <t>696</t>
+    <t>697</t>
   </si>
   <si>
     <t>46</t>
@@ -691,7 +691,7 @@
     <t>10993773.05</t>
   </si>
   <si>
-    <t>5109115.51</t>
+    <t>5110078.51</t>
   </si>
   <si>
     <t>188578.00</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="291">
   <si>
     <t>dispositif</t>
   </si>
@@ -55,13 +55,13 @@
     <t>7</t>
   </si>
   <si>
-    <t>1615</t>
+    <t>1623</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>1120</t>
+    <t>1125</t>
   </si>
   <si>
     <t>21</t>
@@ -88,30 +88,33 @@
     <t>9</t>
   </si>
   <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>758</t>
+    <t>307</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>487</t>
   </si>
   <si>
     <t>218</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -235,10 +238,10 @@
     <t>459</t>
   </si>
   <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>697</t>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>698</t>
   </si>
   <si>
     <t>46</t>
@@ -463,13 +466,13 @@
     <t>36216.00</t>
   </si>
   <si>
-    <t>14084567.83</t>
+    <t>14167367.43</t>
   </si>
   <si>
     <t>12500.00</t>
   </si>
   <si>
-    <t>8582679.67</t>
+    <t>8635487.99</t>
   </si>
   <si>
     <t>46998.41</t>
@@ -496,16 +499,16 @@
     <t>36250.00</t>
   </si>
   <si>
-    <t>1175033.84</t>
+    <t>1176266.84</t>
   </si>
   <si>
     <t>22500.00</t>
   </si>
   <si>
-    <t>7976231.09</t>
-  </si>
-  <si>
-    <t>1935777.42</t>
+    <t>8014452.50</t>
+  </si>
+  <si>
+    <t>1945770.62</t>
   </si>
   <si>
     <t>44471.00</t>
@@ -688,10 +691,10 @@
     <t>42254.00</t>
   </si>
   <si>
-    <t>10993773.05</t>
-  </si>
-  <si>
-    <t>5110078.51</t>
+    <t>10996644.05</t>
+  </si>
+  <si>
+    <t>5110678.51</t>
   </si>
   <si>
     <t>188578.00</t>
@@ -1287,22 +1290,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1319,19 +1322,19 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1345,22 +1348,22 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1377,19 +1380,19 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1403,22 +1406,22 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1432,22 +1435,22 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1461,22 +1464,22 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1490,22 +1493,22 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1522,19 +1525,19 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1548,22 +1551,22 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1577,22 +1580,22 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1609,19 +1612,19 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1635,22 +1638,22 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1664,22 +1667,22 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1696,19 +1699,19 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1722,22 +1725,22 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1751,22 +1754,22 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1783,19 +1786,19 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1812,19 +1815,19 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1838,22 +1841,22 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1870,19 +1873,19 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1896,22 +1899,22 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1922,25 +1925,25 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1951,25 +1954,25 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1980,25 +1983,25 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2009,25 +2012,25 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2038,25 +2041,25 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2067,25 +2070,25 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2102,19 +2105,19 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2128,22 +2131,22 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2154,25 +2157,25 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2183,25 +2186,25 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2212,25 +2215,25 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2247,19 +2250,19 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2270,25 +2273,25 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2299,25 +2302,25 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2328,25 +2331,25 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2357,25 +2360,25 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2386,25 +2389,25 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2415,25 +2418,25 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2450,19 +2453,19 @@
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2473,25 +2476,25 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2502,25 +2505,25 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2531,25 +2534,25 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2560,25 +2563,25 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2589,25 +2592,25 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2618,25 +2621,25 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2647,25 +2650,25 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I49" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2676,25 +2679,25 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2705,25 +2708,25 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I51" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2734,25 +2737,25 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2769,19 +2772,19 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2792,25 +2795,25 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2821,25 +2824,25 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s">
         <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2856,19 +2859,19 @@
         <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2879,25 +2882,25 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F57" t="s">
         <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I57" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2908,25 +2911,25 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F58" t="s">
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2937,25 +2940,25 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F59" t="s">
         <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I59" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2966,25 +2969,25 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
         <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2995,25 +2998,25 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
         <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3024,25 +3027,25 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3053,25 +3056,25 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3082,25 +3085,25 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3111,25 +3114,25 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H65" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I65" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3146,19 +3149,19 @@
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3169,25 +3172,25 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3198,25 +3201,25 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I68" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3227,25 +3230,25 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3259,22 +3262,22 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I70" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3285,25 +3288,25 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3314,25 +3317,25 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3349,19 +3352,19 @@
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I73" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3372,25 +3375,25 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3401,25 +3404,25 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I75" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3430,25 +3433,25 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3465,19 +3468,19 @@
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I77" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3491,22 +3494,22 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I78" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3517,25 +3520,25 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3552,19 +3555,19 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3575,25 +3578,25 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I81" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3604,25 +3607,25 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I82" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3633,25 +3636,25 @@
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3662,25 +3665,25 @@
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I84" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3691,25 +3694,25 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I85" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3726,19 +3729,19 @@
         <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3752,22 +3755,22 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I87" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3778,25 +3781,25 @@
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3813,19 +3816,19 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H89" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I89" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3836,25 +3839,25 @@
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H90" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I90" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3865,25 +3868,25 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3894,25 +3897,25 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F92" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I92" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3923,25 +3926,25 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G93" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I93" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3958,19 +3961,19 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3981,25 +3984,25 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4010,25 +4013,25 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H96" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I96" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4042,22 +4045,22 @@
         <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I97" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4068,25 +4071,25 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H98" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I98" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4097,25 +4100,25 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I99" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4132,19 +4135,19 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G100" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I100" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4155,25 +4158,25 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
         <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G101" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I101" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4184,25 +4187,25 @@
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D102" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H102" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4219,19 +4222,19 @@
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H103" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I103" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4242,25 +4245,25 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F104" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H104" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I104" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4271,25 +4274,25 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H105" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4300,25 +4303,25 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F106" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G106" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H106" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -109,7 +109,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>487</t>
+    <t>490</t>
   </si>
   <si>
     <t>218</t>
@@ -157,7 +157,7 @@
     <t>303</t>
   </si>
   <si>
-    <t>531</t>
+    <t>532</t>
   </si>
   <si>
     <t>205</t>
@@ -274,7 +274,7 @@
     <t>1513</t>
   </si>
   <si>
-    <t>1748</t>
+    <t>1749</t>
   </si>
   <si>
     <t>1688</t>
@@ -352,7 +352,7 @@
     <t>280</t>
   </si>
   <si>
-    <t>517</t>
+    <t>518</t>
   </si>
   <si>
     <t>275</t>
@@ -523,7 +523,7 @@
     <t>13236.03</t>
   </si>
   <si>
-    <t>4050154.52</t>
+    <t>4096504.52</t>
   </si>
   <si>
     <t>1541795.95</t>
@@ -583,7 +583,7 @@
     <t>55623.85</t>
   </si>
   <si>
-    <t>2026889.17</t>
+    <t>2028889.17</t>
   </si>
   <si>
     <t>1288625.38</t>
@@ -751,7 +751,7 @@
     <t>52960.00</t>
   </si>
   <si>
-    <t>10753578.75</t>
+    <t>10798578.75</t>
   </si>
   <si>
     <t>17500.00</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -49,19 +49,19 @@
     <t>VOLET2</t>
   </si>
   <si>
-    <t>1891</t>
+    <t>1892</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>1623</t>
+    <t>1624</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>1125</t>
+    <t>1126</t>
   </si>
   <si>
     <t>21</t>
@@ -283,10 +283,10 @@
     <t>84</t>
   </si>
   <si>
-    <t>1768</t>
-  </si>
-  <si>
-    <t>1384</t>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1385</t>
   </si>
   <si>
     <t>977</t>
@@ -460,19 +460,19 @@
     <t>76</t>
   </si>
   <si>
-    <t>4916645.43</t>
+    <t>4918645.43</t>
   </si>
   <si>
     <t>36216.00</t>
   </si>
   <si>
-    <t>14167367.43</t>
+    <t>14171148.93</t>
   </si>
   <si>
     <t>12500.00</t>
   </si>
   <si>
-    <t>8635487.99</t>
+    <t>8680487.99</t>
   </si>
   <si>
     <t>46998.41</t>

--- a/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
